--- a/controlled_vocabulary.xlsx
+++ b/controlled_vocabulary.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aliu319\Documents\GitHub\ofet-db\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aaron\Documents\GitHub\ofet-db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71CC8A38-40F4-4C5A-9B16-0FD6E0BA67D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8091D1D7-EDC4-46FD-8E2F-B6C6CEC6EC55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="396" windowWidth="22680" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main_table_features" sheetId="1" r:id="rId1"/>
     <sheet name="process_descriptors" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="237">
   <si>
     <t>name</t>
   </si>
@@ -672,6 +671,72 @@
   </si>
   <si>
     <t>descriptor_class</t>
+  </si>
+  <si>
+    <t>addition of poor solvent a liquid mixture</t>
+  </si>
+  <si>
+    <t>exposure of solution to uv light</t>
+  </si>
+  <si>
+    <t>static time exposure to induce physical/chemical change</t>
+  </si>
+  <si>
+    <t>some exposure in the presence of a chemical</t>
+  </si>
+  <si>
+    <t>UV ozone cleaning, i.e., of a surface</t>
+  </si>
+  <si>
+    <t>self-assembled monolayer</t>
+  </si>
+  <si>
+    <t>heat treatment often with slow, controlled cooling process</t>
+  </si>
+  <si>
+    <t>spin coating</t>
+  </si>
+  <si>
+    <t>blade coating, using a doctor blade or mounted plate</t>
+  </si>
+  <si>
+    <t>drop casting</t>
+  </si>
+  <si>
+    <t>inkjet printing</t>
+  </si>
+  <si>
+    <t>wire-bar coating</t>
+  </si>
+  <si>
+    <t>dip coating</t>
+  </si>
+  <si>
+    <t>spray coating</t>
+  </si>
+  <si>
+    <t>electron charge carrier transfer behavior</t>
+  </si>
+  <si>
+    <t>hole charge carrier transfer behavior</t>
+  </si>
+  <si>
+    <t>UV-vis spectrum, on a film</t>
+  </si>
+  <si>
+    <t>UV-vis spectrum, on solution</t>
+  </si>
+  <si>
+    <t>Grazing Incidence Wide-Angle X-ray Scattering</t>
+  </si>
+  <si>
+    <t>Atomic Force Microscopy</t>
+  </si>
+  <si>
+    <t>viscosity</t>
+  </si>
+  <si>
+    <t>film thickness</t>
   </si>
 </sst>
 </file>
@@ -709,7 +774,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -725,12 +790,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -756,7 +815,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -765,13 +824,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1054,46 +1111,46 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G79"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E55" sqref="E55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="100.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.5703125" customWidth="1"/>
-    <col min="5" max="5" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.140625" customWidth="1"/>
-    <col min="7" max="7" width="9.28515625" customWidth="1"/>
+    <col min="1" max="1" width="24.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="100.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.5546875" customWidth="1"/>
+    <col min="5" max="5" width="29.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.109375" customWidth="1"/>
+    <col min="7" max="7" width="9.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="8" customFormat="1" ht="19.5" thickBot="1">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:7" s="6" customFormat="1" ht="18.600000000000001" thickBot="1">
+      <c r="A1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="6" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="3" customFormat="1" ht="15.75" thickTop="1"/>
+    <row r="2" spans="1:7" s="3" customFormat="1" ht="15" thickTop="1"/>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>9</v>
@@ -1363,7 +1420,7 @@
       <c r="B21" t="s">
         <v>46</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" t="s">
         <v>48</v>
       </c>
       <c r="F21" t="s">
@@ -1377,10 +1434,10 @@
       <c r="B22" t="s">
         <v>49</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" t="s">
         <v>52</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="D22" t="s">
         <v>51</v>
       </c>
       <c r="F22" t="s">
@@ -1394,7 +1451,7 @@
       <c r="B23" t="s">
         <v>50</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" t="s">
         <v>53</v>
       </c>
       <c r="D23" t="s">
@@ -1411,7 +1468,7 @@
       <c r="B24" t="s">
         <v>54</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" t="s">
         <v>55</v>
       </c>
       <c r="F24" t="s">
@@ -1425,7 +1482,7 @@
       <c r="B25" t="s">
         <v>56</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" t="s">
         <v>60</v>
       </c>
       <c r="F25" t="s">
@@ -1442,7 +1499,7 @@
       <c r="B26" t="s">
         <v>57</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" t="s">
         <v>61</v>
       </c>
       <c r="F26" t="s">
@@ -1459,16 +1516,16 @@
       <c r="B27" t="s">
         <v>58</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C27" t="s">
         <v>62</v>
       </c>
-      <c r="D27" s="6" t="s">
+      <c r="D27" t="s">
         <v>63</v>
       </c>
-      <c r="E27" s="6" t="s">
+      <c r="E27" t="s">
         <v>65</v>
       </c>
-      <c r="F27" s="6" t="s">
+      <c r="F27" t="s">
         <v>34</v>
       </c>
       <c r="G27" t="s">
@@ -1482,10 +1539,10 @@
       <c r="B28" t="s">
         <v>59</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C28" t="s">
         <v>66</v>
       </c>
-      <c r="F28" s="6" t="s">
+      <c r="F28" t="s">
         <v>12</v>
       </c>
       <c r="G28" t="s">
@@ -1500,7 +1557,7 @@
       <c r="B30" t="s">
         <v>68</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="C30" t="s">
         <v>69</v>
       </c>
       <c r="E30" t="s">
@@ -1518,7 +1575,7 @@
       <c r="B32" t="s">
         <v>70</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="C32" t="s">
         <v>71</v>
       </c>
       <c r="E32" t="s">
@@ -1535,7 +1592,7 @@
       <c r="B33" t="s">
         <v>72</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="C33" t="s">
         <v>76</v>
       </c>
       <c r="E33" t="s">
@@ -1555,7 +1612,7 @@
       <c r="B34" t="s">
         <v>73</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="C34" t="s">
         <v>77</v>
       </c>
       <c r="D34" t="s">
@@ -1575,7 +1632,7 @@
       <c r="B35" t="s">
         <v>74</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="C35" t="s">
         <v>85</v>
       </c>
       <c r="D35" s="2" t="s">
@@ -1595,7 +1652,7 @@
       <c r="B36" t="s">
         <v>75</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="C36" t="s">
         <v>86</v>
       </c>
       <c r="D36" t="s">
@@ -1676,7 +1733,7 @@
       <c r="B41" t="s">
         <v>30</v>
       </c>
-      <c r="C41" s="6" t="s">
+      <c r="C41" t="s">
         <v>82</v>
       </c>
       <c r="F41" t="s">
@@ -1693,7 +1750,7 @@
       <c r="B42" t="s">
         <v>83</v>
       </c>
-      <c r="C42" s="6" t="s">
+      <c r="C42" t="s">
         <v>84</v>
       </c>
       <c r="E42" t="s">
@@ -1713,7 +1770,7 @@
       <c r="B43" t="s">
         <v>91</v>
       </c>
-      <c r="C43" s="6" t="s">
+      <c r="C43" t="s">
         <v>96</v>
       </c>
       <c r="F43" t="s">
@@ -2141,7 +2198,7 @@
       <c r="A68" t="s">
         <v>158</v>
       </c>
-      <c r="B68" s="7" t="s">
+      <c r="B68" t="s">
         <v>159</v>
       </c>
       <c r="C68" t="s">
@@ -2158,7 +2215,7 @@
       <c r="A69" t="s">
         <v>158</v>
       </c>
-      <c r="B69" s="7" t="s">
+      <c r="B69" t="s">
         <v>160</v>
       </c>
       <c r="C69" t="s">
@@ -2178,7 +2235,7 @@
       <c r="A70" t="s">
         <v>158</v>
       </c>
-      <c r="B70" s="7" t="s">
+      <c r="B70" t="s">
         <v>161</v>
       </c>
       <c r="C70" t="s">
@@ -2198,7 +2255,7 @@
       <c r="A71" t="s">
         <v>158</v>
       </c>
-      <c r="B71" s="9" t="s">
+      <c r="B71" s="7" t="s">
         <v>162</v>
       </c>
       <c r="C71" t="s">
@@ -2218,7 +2275,7 @@
       <c r="A72" t="s">
         <v>158</v>
       </c>
-      <c r="B72" s="7" t="s">
+      <c r="B72" t="s">
         <v>163</v>
       </c>
       <c r="C72" t="s">
@@ -2238,7 +2295,7 @@
       <c r="A73" t="s">
         <v>158</v>
       </c>
-      <c r="B73" s="7" t="s">
+      <c r="B73" t="s">
         <v>164</v>
       </c>
       <c r="C73" t="s">
@@ -2255,7 +2312,7 @@
       <c r="A74" t="s">
         <v>158</v>
       </c>
-      <c r="B74" s="7" t="s">
+      <c r="B74" t="s">
         <v>165</v>
       </c>
       <c r="D74" t="s">
@@ -2272,7 +2329,7 @@
       <c r="A75" t="s">
         <v>158</v>
       </c>
-      <c r="B75" s="7" t="s">
+      <c r="B75" t="s">
         <v>166</v>
       </c>
       <c r="C75" t="s">
@@ -2289,7 +2346,7 @@
       <c r="A76" t="s">
         <v>158</v>
       </c>
-      <c r="B76" s="7" t="s">
+      <c r="B76" t="s">
         <v>167</v>
       </c>
       <c r="C76" t="s">
@@ -2309,7 +2366,7 @@
       <c r="A77" t="s">
         <v>158</v>
       </c>
-      <c r="B77" s="7" t="s">
+      <c r="B77" t="s">
         <v>168</v>
       </c>
       <c r="D77" s="2" t="s">
@@ -2326,7 +2383,7 @@
       <c r="A78" t="s">
         <v>158</v>
       </c>
-      <c r="B78" s="7" t="s">
+      <c r="B78" t="s">
         <v>169</v>
       </c>
       <c r="C78" t="s">
@@ -2346,7 +2403,7 @@
       <c r="A79" t="s">
         <v>158</v>
       </c>
-      <c r="B79" s="7" t="s">
+      <c r="B79" t="s">
         <v>170</v>
       </c>
       <c r="C79" t="s">
@@ -2367,78 +2424,130 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADD3A244-A428-4913-B65E-EBCBF7BE8703}">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="43.42578125" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="8" customFormat="1" ht="19.5" thickBot="1">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:3" s="6" customFormat="1" ht="18.600000000000001" thickBot="1">
+      <c r="A1" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75" thickTop="1">
+    <row r="2" spans="1:3" ht="15" thickTop="1">
       <c r="A2" t="s">
         <v>70</v>
       </c>
       <c r="B2" t="s">
         <v>191</v>
       </c>
+      <c r="C2" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>70</v>
+      </c>
       <c r="B3" t="s">
         <v>192</v>
       </c>
+      <c r="C3" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>70</v>
+      </c>
       <c r="B4" t="s">
         <v>193</v>
       </c>
+      <c r="C4" t="s">
+        <v>216</v>
+      </c>
     </row>
     <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>70</v>
+      </c>
       <c r="B5" t="s">
         <v>194</v>
       </c>
+      <c r="C5" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>70</v>
+      </c>
       <c r="B6" t="s">
         <v>195</v>
       </c>
+      <c r="C6" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>70</v>
+      </c>
       <c r="B7" t="s">
         <v>196</v>
       </c>
+      <c r="C7" t="s">
+        <v>218</v>
+      </c>
     </row>
     <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>70</v>
+      </c>
       <c r="B8" t="s">
         <v>197</v>
       </c>
+      <c r="C8" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>70</v>
+      </c>
       <c r="B9" t="s">
         <v>198</v>
       </c>
+      <c r="C9" t="s">
+        <v>220</v>
+      </c>
     </row>
     <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>70</v>
+      </c>
       <c r="B10" t="s">
         <v>199</v>
       </c>
-    </row>
+      <c r="C10" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" s="4" customFormat="1"/>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>124</v>
@@ -2446,73 +2555,163 @@
       <c r="B12" t="s">
         <v>200</v>
       </c>
+      <c r="C12" t="s">
+        <v>222</v>
+      </c>
     </row>
     <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>124</v>
+      </c>
       <c r="B13" t="s">
         <v>201</v>
       </c>
+      <c r="C13" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>124</v>
+      </c>
       <c r="B14" t="s">
         <v>202</v>
       </c>
+      <c r="C14" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>124</v>
+      </c>
       <c r="B15" t="s">
         <v>203</v>
       </c>
+      <c r="C15" t="s">
+        <v>225</v>
+      </c>
     </row>
     <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>124</v>
+      </c>
       <c r="B16" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
+      <c r="C16" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>124</v>
+      </c>
       <c r="B17" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>124</v>
+      </c>
       <c r="B18" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C18" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" s="4" customFormat="1"/>
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>159</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="8" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="B21" s="10" t="s">
+      <c r="C20" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>159</v>
+      </c>
+      <c r="B21" s="8" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="22" spans="1:2">
+      <c r="C21" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>159</v>
+      </c>
       <c r="B22" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="23" spans="1:2">
+      <c r="C22" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>159</v>
+      </c>
       <c r="B23" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="24" spans="1:2">
+      <c r="C23" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>159</v>
+      </c>
       <c r="B24" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="25" spans="1:2">
+      <c r="C24" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>159</v>
+      </c>
       <c r="B25" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="26" spans="1:2">
+      <c r="C25" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>159</v>
+      </c>
       <c r="B26" t="s">
         <v>213</v>
+      </c>
+      <c r="C26" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>159</v>
+      </c>
+      <c r="B27" t="s">
+        <v>235</v>
+      </c>
+      <c r="C27" t="s">
+        <v>235</v>
       </c>
     </row>
   </sheetData>

--- a/controlled_vocabulary.xlsx
+++ b/controlled_vocabulary.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aaron\Documents\GitHub\ofet-db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8091D1D7-EDC4-46FD-8E2F-B6C6CEC6EC55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D4028BA-FA5A-44CD-ABF4-BD8CE683858A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="396" windowWidth="22680" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main_table_features" sheetId="1" r:id="rId1"/>
     <sheet name="process_descriptors" sheetId="2" r:id="rId2"/>
+    <sheet name="measurement_types" sheetId="3" r:id="rId3"/>
+    <sheet name="data_types" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="261">
   <si>
     <t>name</t>
   </si>
@@ -737,6 +739,78 @@
   </si>
   <si>
     <t>film thickness</t>
+  </si>
+  <si>
+    <t>equipment_description</t>
+  </si>
+  <si>
+    <t>A00_A01</t>
+  </si>
+  <si>
+    <t>exciton_bandwidth</t>
+  </si>
+  <si>
+    <t>dichroic_ratio</t>
+  </si>
+  <si>
+    <t>file_name</t>
+  </si>
+  <si>
+    <t>comments</t>
+  </si>
+  <si>
+    <t>aggregate_frac</t>
+  </si>
+  <si>
+    <t>image_width</t>
+  </si>
+  <si>
+    <t>S_full</t>
+  </si>
+  <si>
+    <t>correlation_length</t>
+  </si>
+  <si>
+    <t>mean_fiber_length</t>
+  </si>
+  <si>
+    <t>fiber_length_density</t>
+  </si>
+  <si>
+    <t>100_d_spacing</t>
+  </si>
+  <si>
+    <t>100_coherence_length</t>
+  </si>
+  <si>
+    <t>100_paracrystallinity</t>
+  </si>
+  <si>
+    <t>100_FWHM</t>
+  </si>
+  <si>
+    <t>010_d_spacing</t>
+  </si>
+  <si>
+    <t>010_coherence_length</t>
+  </si>
+  <si>
+    <t>010_paracrystallinity</t>
+  </si>
+  <si>
+    <t>010_FWHM</t>
+  </si>
+  <si>
+    <t>grain_size</t>
+  </si>
+  <si>
+    <t>hermans_orientation_factor</t>
+  </si>
+  <si>
+    <t>film_thickness</t>
+  </si>
+  <si>
+    <t>multiple</t>
   </si>
 </sst>
 </file>
@@ -815,7 +889,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -828,7 +902,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1111,9 +1184,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E55" sqref="E55"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2424,10 +2497,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADD3A244-A428-4913-B65E-EBCBF7BE8703}">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2626,92 +2699,352 @@
       </c>
     </row>
     <row r="19" spans="1:3" s="4" customFormat="1"/>
-    <row r="20" spans="1:3">
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40004C57-D155-48AF-927D-0788AC62B8A6}">
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="18.600000000000001" thickBot="1">
+      <c r="A1" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15" thickTop="1">
+      <c r="A2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B3" t="s">
+        <v>208</v>
+      </c>
+      <c r="C3" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>159</v>
+      </c>
+      <c r="B4" t="s">
+        <v>209</v>
+      </c>
+      <c r="C4" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>159</v>
+      </c>
+      <c r="B5" t="s">
+        <v>210</v>
+      </c>
+      <c r="C5" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>159</v>
+      </c>
+      <c r="B6" t="s">
+        <v>211</v>
+      </c>
+      <c r="C6" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>159</v>
+      </c>
+      <c r="B7" t="s">
+        <v>212</v>
+      </c>
+      <c r="C7" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>159</v>
+      </c>
+      <c r="B8" t="s">
+        <v>213</v>
+      </c>
+      <c r="C8" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>159</v>
+      </c>
+      <c r="B9" t="s">
+        <v>235</v>
+      </c>
+      <c r="C9" t="s">
+        <v>235</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10468954-E1B9-4591-9B3C-ADA4E2A7FDB0}">
+  <dimension ref="A1:G28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="29" customWidth="1"/>
+    <col min="2" max="2" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="6" customFormat="1" ht="18.600000000000001" thickBot="1">
+      <c r="A1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15" thickTop="1">
+      <c r="A2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>260</v>
+      </c>
+      <c r="B3" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>260</v>
+      </c>
+      <c r="B4" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>209</v>
+      </c>
+      <c r="B6" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>209</v>
+      </c>
+      <c r="B7" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>209</v>
+      </c>
+      <c r="B8" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>210</v>
+      </c>
+      <c r="B9" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>212</v>
+      </c>
+      <c r="B11" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>212</v>
+      </c>
+      <c r="B12" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>212</v>
+      </c>
+      <c r="B13" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>212</v>
+      </c>
+      <c r="B14" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>212</v>
+      </c>
+      <c r="B15" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>211</v>
+      </c>
+      <c r="B17" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>211</v>
+      </c>
+      <c r="B18" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>211</v>
+      </c>
+      <c r="B19" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>159</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="C20" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>211</v>
+      </c>
+      <c r="B20" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>159</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="C21" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>211</v>
+      </c>
+      <c r="B21" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>159</v>
+        <v>211</v>
       </c>
       <c r="B22" t="s">
-        <v>209</v>
-      </c>
-      <c r="C22" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>159</v>
+        <v>211</v>
       </c>
       <c r="B23" t="s">
-        <v>210</v>
-      </c>
-      <c r="C23" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>159</v>
+        <v>211</v>
       </c>
       <c r="B24" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
         <v>211</v>
       </c>
-      <c r="C24" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
-        <v>159</v>
-      </c>
       <c r="B25" t="s">
-        <v>212</v>
-      </c>
-      <c r="C25" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>159</v>
+        <v>211</v>
       </c>
       <c r="B26" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
         <v>213</v>
       </c>
-      <c r="C26" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" t="s">
-        <v>159</v>
-      </c>
-      <c r="B27" t="s">
-        <v>235</v>
-      </c>
-      <c r="C27" t="s">
-        <v>235</v>
+      <c r="B28" t="s">
+        <v>259</v>
       </c>
     </row>
   </sheetData>

--- a/controlled_vocabulary.xlsx
+++ b/controlled_vocabulary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aaron\Documents\GitHub\ofet-db\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\Documents\GitHub\ofet-db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D4028BA-FA5A-44CD-ABF4-BD8CE683858A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{925301A7-9BD3-49FA-A469-EBD152E83CE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main_table_features" sheetId="1" r:id="rId1"/>
@@ -18,17 +18,28 @@
     <sheet name="measurement_types" sheetId="3" r:id="rId3"/>
     <sheet name="data_types" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="267">
   <si>
     <t>name</t>
   </si>
@@ -135,12 +146,6 @@
     <t>float</t>
   </si>
   <si>
-    <t>preferred_name</t>
-  </si>
-  <si>
-    <t>Preferred name from IUPAC. Listed under "IUPAC Name" in PubChem</t>
-  </si>
-  <si>
     <t>solution_makeup_solvent</t>
   </si>
   <si>
@@ -732,9 +737,6 @@
     <t>Grazing Incidence Wide-Angle X-ray Scattering</t>
   </si>
   <si>
-    <t>Atomic Force Microscopy</t>
-  </si>
-  <si>
     <t>viscosity</t>
   </si>
   <si>
@@ -811,6 +813,33 @@
   </si>
   <si>
     <t>multiple</t>
+  </si>
+  <si>
+    <t>afm_height</t>
+  </si>
+  <si>
+    <t>afm_phase</t>
+  </si>
+  <si>
+    <t>atomic force microscope height map</t>
+  </si>
+  <si>
+    <t>atomic force microscope phase map</t>
+  </si>
+  <si>
+    <t>Å</t>
+  </si>
+  <si>
+    <t>meV</t>
+  </si>
+  <si>
+    <t>1/um</t>
+  </si>
+  <si>
+    <t>iupac_name</t>
+  </si>
+  <si>
+    <t>Preferred name from IUPAC. Listed under "IUPAC Name" in PubChem. Note that CRIPT vocab has "preferred_name"</t>
   </si>
 </sst>
 </file>
@@ -1184,23 +1213,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G79"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="24.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="100.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.5546875" customWidth="1"/>
-    <col min="5" max="5" width="29.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.109375" customWidth="1"/>
-    <col min="7" max="7" width="9.33203125" customWidth="1"/>
+    <col min="1" max="1" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="105.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.5703125" customWidth="1"/>
+    <col min="5" max="5" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.140625" customWidth="1"/>
+    <col min="7" max="7" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="6" customFormat="1" ht="18.600000000000001" thickBot="1">
+    <row r="1" spans="1:7" s="6" customFormat="1" ht="19.5" thickBot="1">
       <c r="A1" s="6" t="s">
         <v>2</v>
       </c>
@@ -1214,16 +1243,16 @@
         <v>26</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F1" s="6" t="s">
         <v>11</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" s="3" customFormat="1" ht="15" thickTop="1"/>
+        <v>185</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="3" customFormat="1" ht="15.75" thickTop="1"/>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>9</v>
@@ -1261,7 +1290,7 @@
         <v>12</v>
       </c>
       <c r="G4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1281,7 +1310,7 @@
         <v>12</v>
       </c>
       <c r="G5" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1301,7 +1330,7 @@
         <v>12</v>
       </c>
       <c r="G6" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1321,7 +1350,7 @@
         <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1341,7 +1370,7 @@
         <v>12</v>
       </c>
       <c r="G8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1361,7 +1390,7 @@
         <v>12</v>
       </c>
       <c r="G9" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1381,7 +1410,7 @@
         <v>12</v>
       </c>
       <c r="G10" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="3" customFormat="1"/>
@@ -1425,10 +1454,10 @@
         <v>29</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
+        <v>265</v>
       </c>
       <c r="C15" t="s">
-        <v>36</v>
+        <v>266</v>
       </c>
       <c r="D15" t="s">
         <v>32</v>
@@ -1442,13 +1471,13 @@
         <v>29</v>
       </c>
       <c r="B16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="C16" t="s">
-        <v>39</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:7" s="4" customFormat="1">
@@ -1456,16 +1485,16 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B18" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C18" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E18" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F18" t="s">
         <v>34</v>
@@ -1474,13 +1503,13 @@
     <row r="19" spans="1:7" s="4" customFormat="1"/>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" t="s">
+        <v>265</v>
+      </c>
+      <c r="C20" t="s">
         <v>45</v>
-      </c>
-      <c r="B20" t="s">
-        <v>35</v>
-      </c>
-      <c r="C20" t="s">
-        <v>47</v>
       </c>
       <c r="F20" t="s">
         <v>12</v>
@@ -1488,13 +1517,13 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" t="s">
         <v>46</v>
-      </c>
-      <c r="C21" t="s">
-        <v>48</v>
       </c>
       <c r="F21" t="s">
         <v>12</v>
@@ -1502,16 +1531,16 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B22" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" t="s">
+        <v>50</v>
+      </c>
+      <c r="D22" t="s">
         <v>49</v>
-      </c>
-      <c r="C22" t="s">
-        <v>52</v>
-      </c>
-      <c r="D22" t="s">
-        <v>51</v>
       </c>
       <c r="F22" t="s">
         <v>34</v>
@@ -1519,16 +1548,16 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B23" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C23" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D23" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F23" t="s">
         <v>34</v>
@@ -1536,13 +1565,13 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B24" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C24" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F24" t="s">
         <v>34</v>
@@ -1550,91 +1579,91 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B25" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C25" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F25" t="s">
         <v>12</v>
       </c>
       <c r="G25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B26" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C26" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F26" t="s">
         <v>12</v>
       </c>
       <c r="G26" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B27" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C27" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D27" t="s">
+        <v>61</v>
+      </c>
+      <c r="E27" t="s">
         <v>63</v>
-      </c>
-      <c r="E27" t="s">
-        <v>65</v>
       </c>
       <c r="F27" t="s">
         <v>34</v>
       </c>
       <c r="G27" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B28" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C28" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F28" t="s">
         <v>12</v>
       </c>
       <c r="G28" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="29" spans="1:7" s="4" customFormat="1"/>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
+        <v>65</v>
+      </c>
+      <c r="B30" t="s">
+        <v>66</v>
+      </c>
+      <c r="C30" t="s">
         <v>67</v>
       </c>
-      <c r="B30" t="s">
-        <v>68</v>
-      </c>
-      <c r="C30" t="s">
-        <v>69</v>
-      </c>
       <c r="E30" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F30" t="s">
         <v>34</v>
@@ -1643,16 +1672,16 @@
     <row r="31" spans="1:7" s="3" customFormat="1"/>
     <row r="32" spans="1:7">
       <c r="A32" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B32" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C32" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E32" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F32" t="s">
         <v>12</v>
@@ -1660,625 +1689,625 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B33" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C33" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E33" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F33" t="s">
         <v>12</v>
       </c>
       <c r="G33" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B34" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C34" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D34" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F34" t="s">
         <v>33</v>
       </c>
       <c r="G34" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B35" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C35" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F35" t="s">
         <v>33</v>
       </c>
       <c r="G35" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B36" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C36" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D36" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F36" t="s">
         <v>34</v>
       </c>
       <c r="G36" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B37" t="s">
+        <v>85</v>
+      </c>
+      <c r="C37" t="s">
         <v>87</v>
       </c>
-      <c r="C37" t="s">
-        <v>89</v>
-      </c>
       <c r="D37" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F37" t="s">
         <v>34</v>
       </c>
       <c r="G37" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B38" t="s">
+        <v>86</v>
+      </c>
+      <c r="C38" t="s">
         <v>88</v>
       </c>
-      <c r="C38" t="s">
-        <v>90</v>
-      </c>
       <c r="D38" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F38" t="s">
         <v>34</v>
       </c>
       <c r="G38" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B39" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C39" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D39" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F39" t="s">
         <v>34</v>
       </c>
       <c r="G39" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="40" spans="1:7" s="4" customFormat="1"/>
     <row r="41" spans="1:7">
       <c r="A41" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B41" t="s">
         <v>30</v>
       </c>
       <c r="C41" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F41" t="s">
         <v>33</v>
       </c>
       <c r="G41" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B42" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C42" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E42" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F42" t="s">
         <v>34</v>
       </c>
       <c r="G42" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B43" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C43" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F43" t="s">
         <v>12</v>
       </c>
       <c r="G43" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="44" spans="1:7" s="4" customFormat="1"/>
     <row r="45" spans="1:7">
       <c r="A45" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B45" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C45" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E45" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F45" t="s">
         <v>12</v>
       </c>
       <c r="G45" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" t="s">
+        <v>96</v>
+      </c>
+      <c r="B46" t="s">
         <v>98</v>
       </c>
-      <c r="B46" t="s">
-        <v>100</v>
-      </c>
       <c r="C46" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F46" t="s">
         <v>34</v>
       </c>
       <c r="G46" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B47" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C47" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F47" t="s">
         <v>34</v>
       </c>
       <c r="G47" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B48" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C48" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E48" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F48" t="s">
         <v>12</v>
       </c>
       <c r="G48" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B49" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C49" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E49" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F49" t="s">
         <v>12</v>
       </c>
       <c r="G49" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B50" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C50" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E50" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F50" t="s">
         <v>12</v>
       </c>
       <c r="G50" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B51" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C51" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F51" t="s">
         <v>12</v>
       </c>
       <c r="G51" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B52" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C52" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F52" t="s">
         <v>34</v>
       </c>
       <c r="G52" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B53" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C53" t="s">
+        <v>115</v>
+      </c>
+      <c r="D53" t="s">
         <v>117</v>
-      </c>
-      <c r="D53" t="s">
-        <v>119</v>
       </c>
       <c r="F53" t="s">
         <v>34</v>
       </c>
       <c r="G53" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="54" spans="1:7" s="4" customFormat="1"/>
     <row r="55" spans="1:7">
       <c r="A55" t="s">
+        <v>121</v>
+      </c>
+      <c r="B55" t="s">
+        <v>122</v>
+      </c>
+      <c r="C55" t="s">
         <v>123</v>
       </c>
-      <c r="B55" t="s">
+      <c r="E55" t="s">
         <v>124</v>
-      </c>
-      <c r="C55" t="s">
-        <v>125</v>
-      </c>
-      <c r="E55" t="s">
-        <v>126</v>
       </c>
       <c r="F55" t="s">
         <v>12</v>
       </c>
       <c r="G55" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B56" t="s">
+        <v>125</v>
+      </c>
+      <c r="C56" t="s">
         <v>127</v>
       </c>
-      <c r="C56" t="s">
-        <v>129</v>
-      </c>
       <c r="D56" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F56" t="s">
         <v>34</v>
       </c>
       <c r="G56" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B57" t="s">
+        <v>126</v>
+      </c>
+      <c r="C57" t="s">
         <v>128</v>
       </c>
-      <c r="C57" t="s">
-        <v>130</v>
-      </c>
       <c r="D57" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F57" t="s">
         <v>34</v>
       </c>
       <c r="G57" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B58" t="s">
+        <v>129</v>
+      </c>
+      <c r="C58" t="s">
+        <v>130</v>
+      </c>
+      <c r="E58" t="s">
         <v>131</v>
-      </c>
-      <c r="C58" t="s">
-        <v>132</v>
-      </c>
-      <c r="E58" t="s">
-        <v>133</v>
       </c>
       <c r="F58" t="s">
         <v>12</v>
       </c>
       <c r="G58" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B59" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C59" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D59" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F59" t="s">
         <v>34</v>
       </c>
       <c r="G59" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B60" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C60" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F60" t="s">
         <v>34</v>
       </c>
       <c r="G60" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B61" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C61" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E61" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F61" t="s">
         <v>12</v>
       </c>
       <c r="G61" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B62" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C62" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F62" t="s">
         <v>34</v>
       </c>
       <c r="G62" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B63" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C63" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D63" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F63" t="s">
         <v>34</v>
       </c>
       <c r="G63" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B64" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C64" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F64" t="s">
         <v>34</v>
       </c>
       <c r="G64" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="65" spans="1:7">
       <c r="A65" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B65" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C65" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E65" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F65" t="s">
         <v>12</v>
       </c>
       <c r="G65" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="66" spans="1:7">
       <c r="A66" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B66" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C66" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F66" t="s">
         <v>34</v>
       </c>
       <c r="G66" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="67" spans="1:7" s="3" customFormat="1"/>
     <row r="68" spans="1:7">
       <c r="A68" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B68" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C68" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E68" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F68" t="s">
         <v>12</v>
@@ -2286,207 +2315,207 @@
     </row>
     <row r="69" spans="1:7">
       <c r="A69" t="s">
+        <v>156</v>
+      </c>
+      <c r="B69" t="s">
         <v>158</v>
       </c>
-      <c r="B69" t="s">
-        <v>160</v>
-      </c>
       <c r="C69" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E69" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F69" t="s">
         <v>12</v>
       </c>
       <c r="G69" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="70" spans="1:7">
       <c r="A70" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B70" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C70" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D70" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F70" t="s">
         <v>34</v>
       </c>
       <c r="G70" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="71" spans="1:7">
       <c r="A71" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C71" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E71" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F71" t="s">
         <v>12</v>
       </c>
       <c r="G71" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="72" spans="1:7">
       <c r="A72" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B72" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C72" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D72" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F72" t="s">
         <v>34</v>
       </c>
       <c r="G72" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="73" spans="1:7">
       <c r="A73" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B73" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C73" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F73" t="s">
         <v>34</v>
       </c>
       <c r="G73" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="74" spans="1:7">
       <c r="A74" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B74" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D74" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F74" t="s">
         <v>34</v>
       </c>
       <c r="G74" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="75" spans="1:7">
       <c r="A75" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B75" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C75" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F75" t="s">
         <v>12</v>
       </c>
       <c r="G75" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="76" spans="1:7">
       <c r="A76" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B76" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C76" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F76" t="s">
         <v>34</v>
       </c>
       <c r="G76" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="77" spans="1:7">
       <c r="A77" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B77" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F77" t="s">
         <v>33</v>
       </c>
       <c r="G77" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="78" spans="1:7">
       <c r="A78" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B78" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C78" t="s">
+        <v>179</v>
+      </c>
+      <c r="D78" t="s">
         <v>181</v>
-      </c>
-      <c r="D78" t="s">
-        <v>183</v>
       </c>
       <c r="F78" t="s">
         <v>33</v>
       </c>
       <c r="G78" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="79" spans="1:7">
       <c r="A79" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B79" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C79" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F79" t="s">
         <v>12</v>
       </c>
       <c r="G79" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -2503,16 +2532,16 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="49.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="6" customFormat="1" ht="18.600000000000001" thickBot="1">
+    <row r="1" spans="1:3" s="6" customFormat="1" ht="19.5" thickBot="1">
       <c r="A1" s="6" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>0</v>
@@ -2521,181 +2550,181 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" thickTop="1">
+    <row r="2" spans="1:3" ht="15.75" thickTop="1">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C3" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C4" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B5" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C5" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B6" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C6" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C7" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B8" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C8" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B9" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C9" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B10" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C10" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="11" spans="1:3" s="4" customFormat="1"/>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B12" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C12" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B13" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C13" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B14" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C14" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B15" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C15" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B16" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C16" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B17" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C17" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B18" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C18" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="19" spans="1:3" s="4" customFormat="1"/>
@@ -2706,22 +2735,22 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40004C57-D155-48AF-927D-0788AC62B8A6}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18.600000000000001" thickBot="1">
+    <row r="1" spans="1:3" ht="19.5" thickBot="1">
       <c r="A1" s="6" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>0</v>
@@ -2730,92 +2759,103 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" thickTop="1">
+    <row r="2" spans="1:3" ht="15.75" thickTop="1">
       <c r="A2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C3" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C4" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B5" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C5" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B6" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C6" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B7" t="s">
-        <v>212</v>
+        <v>258</v>
       </c>
       <c r="C7" t="s">
-        <v>234</v>
+        <v>260</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B8" t="s">
-        <v>213</v>
+        <v>259</v>
       </c>
       <c r="C8" t="s">
-        <v>236</v>
+        <v>261</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B9" t="s">
-        <v>235</v>
+        <v>211</v>
       </c>
       <c r="C9" t="s">
-        <v>235</v>
+        <v>233</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>157</v>
+      </c>
+      <c r="B10" t="s">
+        <v>232</v>
+      </c>
+      <c r="C10" t="s">
+        <v>232</v>
       </c>
     </row>
   </sheetData>
@@ -2825,22 +2865,22 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10468954-E1B9-4591-9B3C-ADA4E2A7FDB0}">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="29" customWidth="1"/>
-    <col min="2" max="2" width="19.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="6" customFormat="1" ht="18.600000000000001" thickBot="1">
+    <row r="1" spans="1:6" s="6" customFormat="1" ht="19.5" thickBot="1">
       <c r="A1" s="6" t="s">
         <v>2</v>
       </c>
@@ -2848,206 +2888,244 @@
         <v>0</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="15" thickTop="1">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" thickTop="1">
       <c r="A2" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>257</v>
+      </c>
+      <c r="B3" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>257</v>
+      </c>
+      <c r="B4" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="4" customFormat="1"/>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>207</v>
+      </c>
+      <c r="B6" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>207</v>
+      </c>
+      <c r="B7" t="s">
+        <v>236</v>
+      </c>
+      <c r="C7" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>207</v>
+      </c>
+      <c r="B8" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
-        <v>260</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>208</v>
+      </c>
+      <c r="B9" t="s">
+        <v>240</v>
+      </c>
+      <c r="D9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" s="4" customFormat="1"/>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>210</v>
+      </c>
+      <c r="B11" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
-        <v>260</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="C11" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>210</v>
+      </c>
+      <c r="B12" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
-      <c r="A6" t="s">
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>210</v>
+      </c>
+      <c r="B13" t="s">
+        <v>243</v>
+      </c>
+      <c r="C13" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>210</v>
+      </c>
+      <c r="B14" t="s">
+        <v>244</v>
+      </c>
+      <c r="C14" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>210</v>
+      </c>
+      <c r="B15" t="s">
+        <v>245</v>
+      </c>
+      <c r="C15" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" s="4" customFormat="1"/>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
         <v>209</v>
       </c>
-      <c r="B6" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" t="s">
+      <c r="B17" t="s">
+        <v>246</v>
+      </c>
+      <c r="C17" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
         <v>209</v>
       </c>
-      <c r="B7" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" t="s">
+      <c r="B18" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
         <v>209</v>
       </c>
-      <c r="B8" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" t="s">
-        <v>210</v>
-      </c>
-      <c r="B9" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" t="s">
-        <v>212</v>
-      </c>
-      <c r="B11" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" t="s">
-        <v>212</v>
-      </c>
-      <c r="B12" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" t="s">
-        <v>212</v>
-      </c>
-      <c r="B13" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" t="s">
-        <v>212</v>
-      </c>
-      <c r="B14" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" t="s">
-        <v>212</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="B19" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
+      <c r="C19" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>209</v>
+      </c>
+      <c r="B20" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>209</v>
+      </c>
+      <c r="B21" t="s">
+        <v>250</v>
+      </c>
+      <c r="C21" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>209</v>
+      </c>
+      <c r="B22" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>209</v>
+      </c>
+      <c r="B23" t="s">
+        <v>252</v>
+      </c>
+      <c r="C23" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>209</v>
+      </c>
+      <c r="B24" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>209</v>
+      </c>
+      <c r="B25" t="s">
+        <v>254</v>
+      </c>
+      <c r="C25" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>209</v>
+      </c>
+      <c r="B26" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" s="4" customFormat="1"/>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
         <v>211</v>
       </c>
-      <c r="B17" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>211</v>
-      </c>
-      <c r="B18" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>211</v>
-      </c>
-      <c r="B19" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" t="s">
-        <v>211</v>
-      </c>
-      <c r="B20" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>211</v>
-      </c>
-      <c r="B21" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" t="s">
-        <v>211</v>
-      </c>
-      <c r="B22" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" t="s">
-        <v>211</v>
-      </c>
-      <c r="B23" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" t="s">
-        <v>211</v>
-      </c>
-      <c r="B24" t="s">
+      <c r="B28" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" t="s">
-        <v>211</v>
-      </c>
-      <c r="B25" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" t="s">
-        <v>211</v>
-      </c>
-      <c r="B26" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" t="s">
-        <v>213</v>
-      </c>
-      <c r="B28" t="s">
-        <v>259</v>
+      <c r="C28" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/controlled_vocabulary.xlsx
+++ b/controlled_vocabulary.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\Documents\GitHub\ofet-db\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aaron\Documents\GitHub\ofet-db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{925301A7-9BD3-49FA-A469-EBD152E83CE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2B0E1DB-127B-4282-899F-A74C9F67294A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main_table_features" sheetId="1" r:id="rId1"/>
@@ -215,9 +215,6 @@
     <t>sidechain</t>
   </si>
   <si>
-    <t>If not synthesized, the company name of the supplier. Ex.) Rieke Metals</t>
-  </si>
-  <si>
     <t>Batch identifier number, if vendor provided</t>
   </si>
   <si>
@@ -647,9 +644,6 @@
     <t>inkjet</t>
   </si>
   <si>
-    <t>wire_bar</t>
-  </si>
-  <si>
     <t>dip</t>
   </si>
   <si>
@@ -840,6 +834,12 @@
   </si>
   <si>
     <t>Preferred name from IUPAC. Listed under "IUPAC Name" in PubChem. Note that CRIPT vocab has "preferred_name"</t>
+  </si>
+  <si>
+    <t>If not synthesized in-house, the company name of the supplier. Ex.) Rieke Metals</t>
+  </si>
+  <si>
+    <t>wire</t>
   </si>
 </sst>
 </file>
@@ -1214,22 +1214,22 @@
   <dimension ref="A1:G79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C45" sqref="C45"/>
+      <pane ySplit="1" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C76" sqref="C76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="105.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.5703125" customWidth="1"/>
-    <col min="5" max="5" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.140625" customWidth="1"/>
-    <col min="7" max="7" width="9.28515625" customWidth="1"/>
+    <col min="1" max="1" width="24.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="105.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.5546875" customWidth="1"/>
+    <col min="5" max="5" width="29.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.109375" customWidth="1"/>
+    <col min="7" max="7" width="9.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="6" customFormat="1" ht="19.5" thickBot="1">
+    <row r="1" spans="1:7" s="6" customFormat="1" ht="18.600000000000001" thickBot="1">
       <c r="A1" s="6" t="s">
         <v>2</v>
       </c>
@@ -1249,10 +1249,10 @@
         <v>11</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" s="3" customFormat="1" ht="15.75" thickTop="1"/>
+        <v>184</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="3" customFormat="1" ht="15" thickTop="1"/>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>9</v>
@@ -1290,7 +1290,7 @@
         <v>12</v>
       </c>
       <c r="G4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1310,7 +1310,7 @@
         <v>12</v>
       </c>
       <c r="G5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1330,7 +1330,7 @@
         <v>12</v>
       </c>
       <c r="G6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1350,7 +1350,7 @@
         <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1370,7 +1370,7 @@
         <v>12</v>
       </c>
       <c r="G8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1390,7 +1390,7 @@
         <v>12</v>
       </c>
       <c r="G9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1410,7 +1410,7 @@
         <v>12</v>
       </c>
       <c r="G10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="3" customFormat="1"/>
@@ -1454,10 +1454,10 @@
         <v>29</v>
       </c>
       <c r="B15" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C15" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D15" t="s">
         <v>32</v>
@@ -1494,7 +1494,7 @@
         <v>40</v>
       </c>
       <c r="E18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F18" t="s">
         <v>34</v>
@@ -1506,7 +1506,7 @@
         <v>43</v>
       </c>
       <c r="B20" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C20" t="s">
         <v>45</v>
@@ -1585,13 +1585,13 @@
         <v>54</v>
       </c>
       <c r="C25" t="s">
-        <v>58</v>
+        <v>265</v>
       </c>
       <c r="F25" t="s">
         <v>12</v>
       </c>
       <c r="G25" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1602,13 +1602,13 @@
         <v>55</v>
       </c>
       <c r="C26" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F26" t="s">
         <v>12</v>
       </c>
       <c r="G26" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1619,19 +1619,19 @@
         <v>56</v>
       </c>
       <c r="C27" t="s">
+        <v>59</v>
+      </c>
+      <c r="D27" t="s">
         <v>60</v>
       </c>
-      <c r="D27" t="s">
-        <v>61</v>
-      </c>
       <c r="E27" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F27" t="s">
         <v>34</v>
       </c>
       <c r="G27" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1642,25 +1642,25 @@
         <v>57</v>
       </c>
       <c r="C28" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F28" t="s">
         <v>12</v>
       </c>
       <c r="G28" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="29" spans="1:7" s="4" customFormat="1"/>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
+        <v>64</v>
+      </c>
+      <c r="B30" t="s">
         <v>65</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30" t="s">
         <v>66</v>
-      </c>
-      <c r="C30" t="s">
-        <v>67</v>
       </c>
       <c r="E30" t="s">
         <v>41</v>
@@ -1672,16 +1672,16 @@
     <row r="31" spans="1:7" s="3" customFormat="1"/>
     <row r="32" spans="1:7">
       <c r="A32" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B32" t="s">
+        <v>67</v>
+      </c>
+      <c r="C32" t="s">
         <v>68</v>
       </c>
-      <c r="C32" t="s">
-        <v>69</v>
-      </c>
       <c r="E32" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F32" t="s">
         <v>12</v>
@@ -1689,53 +1689,53 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B33" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C33" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E33" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F33" t="s">
         <v>12</v>
       </c>
       <c r="G33" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B34" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C34" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D34" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F34" t="s">
         <v>33</v>
       </c>
       <c r="G34" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B35" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C35" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>38</v>
@@ -1744,116 +1744,116 @@
         <v>33</v>
       </c>
       <c r="G35" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B36" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C36" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D36" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F36" t="s">
         <v>34</v>
       </c>
       <c r="G36" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B37" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C37" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D37" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F37" t="s">
         <v>34</v>
       </c>
       <c r="G37" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B38" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C38" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D38" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F38" t="s">
         <v>34</v>
       </c>
       <c r="G38" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" t="s">
+        <v>153</v>
+      </c>
+      <c r="B39" t="s">
+        <v>89</v>
+      </c>
+      <c r="C39" t="s">
         <v>154</v>
       </c>
-      <c r="B39" t="s">
-        <v>90</v>
-      </c>
-      <c r="C39" t="s">
-        <v>155</v>
-      </c>
       <c r="D39" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F39" t="s">
         <v>34</v>
       </c>
       <c r="G39" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="40" spans="1:7" s="4" customFormat="1"/>
     <row r="41" spans="1:7">
       <c r="A41" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B41" t="s">
         <v>30</v>
       </c>
       <c r="C41" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F41" t="s">
         <v>33</v>
       </c>
       <c r="G41" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B42" t="s">
+        <v>80</v>
+      </c>
+      <c r="C42" t="s">
         <v>81</v>
-      </c>
-      <c r="C42" t="s">
-        <v>82</v>
       </c>
       <c r="E42" t="s">
         <v>41</v>
@@ -1862,452 +1862,452 @@
         <v>34</v>
       </c>
       <c r="G42" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B43" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C43" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F43" t="s">
         <v>12</v>
       </c>
       <c r="G43" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="44" spans="1:7" s="4" customFormat="1"/>
     <row r="45" spans="1:7">
       <c r="A45" t="s">
+        <v>95</v>
+      </c>
+      <c r="B45" t="s">
         <v>96</v>
       </c>
-      <c r="B45" t="s">
-        <v>97</v>
-      </c>
       <c r="C45" t="s">
+        <v>105</v>
+      </c>
+      <c r="E45" t="s">
         <v>106</v>
-      </c>
-      <c r="E45" t="s">
-        <v>107</v>
       </c>
       <c r="F45" t="s">
         <v>12</v>
       </c>
       <c r="G45" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B46" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C46" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F46" t="s">
         <v>34</v>
       </c>
       <c r="G46" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B47" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C47" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F47" t="s">
         <v>34</v>
       </c>
       <c r="G47" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B48" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E48" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F48" t="s">
         <v>12</v>
       </c>
       <c r="G48" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B49" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C49" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E49" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F49" t="s">
         <v>12</v>
       </c>
       <c r="G49" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B50" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C50" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E50" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F50" t="s">
         <v>12</v>
       </c>
       <c r="G50" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B51" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C51" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F51" t="s">
         <v>12</v>
       </c>
       <c r="G51" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B52" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C52" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F52" t="s">
         <v>34</v>
       </c>
       <c r="G52" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B53" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C53" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D53" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F53" t="s">
         <v>34</v>
       </c>
       <c r="G53" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="54" spans="1:7" s="4" customFormat="1"/>
     <row r="55" spans="1:7">
       <c r="A55" t="s">
+        <v>120</v>
+      </c>
+      <c r="B55" t="s">
         <v>121</v>
       </c>
-      <c r="B55" t="s">
+      <c r="C55" t="s">
         <v>122</v>
       </c>
-      <c r="C55" t="s">
+      <c r="E55" t="s">
         <v>123</v>
-      </c>
-      <c r="E55" t="s">
-        <v>124</v>
       </c>
       <c r="F55" t="s">
         <v>12</v>
       </c>
       <c r="G55" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B56" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C56" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D56" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F56" t="s">
         <v>34</v>
       </c>
       <c r="G56" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B57" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C57" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D57" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F57" t="s">
         <v>34</v>
       </c>
       <c r="G57" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B58" t="s">
+        <v>128</v>
+      </c>
+      <c r="C58" t="s">
         <v>129</v>
       </c>
-      <c r="C58" t="s">
+      <c r="E58" t="s">
         <v>130</v>
-      </c>
-      <c r="E58" t="s">
-        <v>131</v>
       </c>
       <c r="F58" t="s">
         <v>12</v>
       </c>
       <c r="G58" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B59" t="s">
+        <v>132</v>
+      </c>
+      <c r="C59" t="s">
         <v>133</v>
       </c>
-      <c r="C59" t="s">
-        <v>134</v>
-      </c>
       <c r="D59" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F59" t="s">
         <v>34</v>
       </c>
       <c r="G59" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B60" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C60" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F60" t="s">
         <v>34</v>
       </c>
       <c r="G60" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B61" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C61" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E61" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F61" t="s">
         <v>12</v>
       </c>
       <c r="G61" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B62" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C62" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F62" t="s">
         <v>34</v>
       </c>
       <c r="G62" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B63" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C63" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D63" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F63" t="s">
         <v>34</v>
       </c>
       <c r="G63" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B64" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C64" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F64" t="s">
         <v>34</v>
       </c>
       <c r="G64" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="65" spans="1:7">
       <c r="A65" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B65" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C65" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E65" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F65" t="s">
         <v>12</v>
       </c>
       <c r="G65" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="66" spans="1:7">
       <c r="A66" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B66" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C66" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F66" t="s">
         <v>34</v>
       </c>
       <c r="G66" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="67" spans="1:7" s="3" customFormat="1"/>
     <row r="68" spans="1:7">
       <c r="A68" t="s">
+        <v>155</v>
+      </c>
+      <c r="B68" t="s">
         <v>156</v>
       </c>
-      <c r="B68" t="s">
-        <v>157</v>
-      </c>
       <c r="C68" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E68" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F68" t="s">
         <v>12</v>
@@ -2315,144 +2315,144 @@
     </row>
     <row r="69" spans="1:7">
       <c r="A69" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B69" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C69" t="s">
+        <v>169</v>
+      </c>
+      <c r="E69" t="s">
         <v>170</v>
-      </c>
-      <c r="E69" t="s">
-        <v>171</v>
       </c>
       <c r="F69" t="s">
         <v>12</v>
       </c>
       <c r="G69" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="70" spans="1:7">
       <c r="A70" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B70" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C70" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D70" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F70" t="s">
         <v>34</v>
       </c>
       <c r="G70" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="71" spans="1:7">
       <c r="A71" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C71" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E71" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F71" t="s">
         <v>12</v>
       </c>
       <c r="G71" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="72" spans="1:7">
       <c r="A72" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B72" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C72" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D72" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F72" t="s">
         <v>34</v>
       </c>
       <c r="G72" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="73" spans="1:7">
       <c r="A73" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B73" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C73" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F73" t="s">
         <v>34</v>
       </c>
       <c r="G73" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="74" spans="1:7">
       <c r="A74" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B74" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D74" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F74" t="s">
         <v>34</v>
       </c>
       <c r="G74" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="75" spans="1:7">
       <c r="A75" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B75" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C75" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F75" t="s">
         <v>12</v>
       </c>
       <c r="G75" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="76" spans="1:7">
       <c r="A76" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B76" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C76" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>38</v>
@@ -2461,61 +2461,61 @@
         <v>34</v>
       </c>
       <c r="G76" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="77" spans="1:7">
       <c r="A77" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B77" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F77" t="s">
         <v>33</v>
       </c>
       <c r="G77" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="78" spans="1:7">
       <c r="A78" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B78" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C78" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D78" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F78" t="s">
         <v>33</v>
       </c>
       <c r="G78" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="79" spans="1:7">
       <c r="A79" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B79" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C79" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F79" t="s">
         <v>12</v>
       </c>
       <c r="G79" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -2529,19 +2529,19 @@
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="49.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="6" customFormat="1" ht="19.5" thickBot="1">
+    <row r="1" spans="1:3" s="6" customFormat="1" ht="18.600000000000001" thickBot="1">
       <c r="A1" s="6" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>0</v>
@@ -2550,181 +2550,181 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75" thickTop="1">
+    <row r="2" spans="1:3" ht="15" thickTop="1">
       <c r="A2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C3" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C4" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C5" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C7" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C8" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C9" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C10" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="11" spans="1:3" s="4" customFormat="1"/>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C12" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B13" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C13" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B14" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C14" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B15" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C15" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B16" t="s">
-        <v>202</v>
+        <v>266</v>
       </c>
       <c r="C16" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B17" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C17" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B18" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C18" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="19" spans="1:3" s="4" customFormat="1"/>
@@ -2741,16 +2741,16 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="43" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="19.5" thickBot="1">
+    <row r="1" spans="1:3" ht="18.600000000000001" thickBot="1">
       <c r="A1" s="6" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>0</v>
@@ -2759,103 +2759,103 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75" thickTop="1">
+    <row r="2" spans="1:3" ht="15" thickTop="1">
       <c r="A2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B3" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C4" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B5" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C5" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B6" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C6" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B7" t="s">
+        <v>256</v>
+      </c>
+      <c r="C7" t="s">
         <v>258</v>
-      </c>
-      <c r="C7" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B8" t="s">
+        <v>257</v>
+      </c>
+      <c r="C8" t="s">
         <v>259</v>
-      </c>
-      <c r="C8" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B9" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C9" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B10" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C10" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -2868,19 +2868,19 @@
   <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="29" customWidth="1"/>
-    <col min="2" max="2" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="6" customFormat="1" ht="19.5" thickBot="1">
+    <row r="1" spans="1:6" s="6" customFormat="1" ht="18.600000000000001" thickBot="1">
       <c r="A1" s="6" t="s">
         <v>2</v>
       </c>
@@ -2897,67 +2897,67 @@
         <v>11</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" thickTop="1">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15" thickTop="1">
       <c r="A2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B3" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B4" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="4" customFormat="1"/>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B6" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B7" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C7" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B8" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B9" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D9" t="s">
         <v>41</v>
@@ -2966,162 +2966,162 @@
     <row r="10" spans="1:6" s="4" customFormat="1"/>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B11" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B12" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B13" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B14" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B15" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C15" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="16" spans="1:6" s="4" customFormat="1"/>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B17" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C17" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B18" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B19" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B20" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B21" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C21" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B22" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B23" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B24" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B25" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C25" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B26" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="27" spans="1:3" s="4" customFormat="1"/>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B28" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C28" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/controlled_vocabulary.xlsx
+++ b/controlled_vocabulary.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aaron\Documents\GitHub\ofet-db\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aliu319\Documents\GitHub\ofet-db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2B0E1DB-127B-4282-899F-A74C9F67294A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADEBB520-DF08-4F76-B469-05448AE68F5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main_table_features" sheetId="1" r:id="rId1"/>
-    <sheet name="process_descriptors" sheetId="2" r:id="rId2"/>
-    <sheet name="measurement_types" sheetId="3" r:id="rId3"/>
-    <sheet name="data_types" sheetId="4" r:id="rId4"/>
+    <sheet name="time_units" sheetId="5" r:id="rId2"/>
+    <sheet name="process_descriptors" sheetId="2" r:id="rId3"/>
+    <sheet name="measurement_types" sheetId="3" r:id="rId4"/>
+    <sheet name="data_types" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="279">
   <si>
     <t>name</t>
   </si>
@@ -173,9 +174,6 @@
     <t>polymer</t>
   </si>
   <si>
-    <t>other_name</t>
-  </si>
-  <si>
     <t>ex.) poly[2,5-(2-octyldodecyl)-3,6-diketopyrrolopyrrole-alt-5,5-(2,5-di(thien-2-yl)thieno [3,2-b]thiophene)]</t>
   </si>
   <si>
@@ -749,9 +747,6 @@
     <t>dichroic_ratio</t>
   </si>
   <si>
-    <t>file_name</t>
-  </si>
-  <si>
     <t>comments</t>
   </si>
   <si>
@@ -840,6 +835,48 @@
   </si>
   <si>
     <t>wire</t>
+  </si>
+  <si>
+    <t>common_name</t>
+  </si>
+  <si>
+    <t>error</t>
+  </si>
+  <si>
+    <t>stderr</t>
+  </si>
+  <si>
+    <t>stdev</t>
+  </si>
+  <si>
+    <t>ci_95</t>
+  </si>
+  <si>
+    <t>95% confidence interval</t>
+  </si>
+  <si>
+    <t>standard error</t>
+  </si>
+  <si>
+    <t>standard deviation</t>
+  </si>
+  <si>
+    <t>filename</t>
+  </si>
+  <si>
+    <t>descriptor</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>equipment description, like model info</t>
+  </si>
+  <si>
+    <t>array[int]</t>
   </si>
 </sst>
 </file>
@@ -877,7 +914,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -893,6 +930,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -918,7 +961,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -931,6 +974,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1214,22 +1259,22 @@
   <dimension ref="A1:G79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C76" sqref="C76"/>
+      <pane ySplit="1" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C79" sqref="C79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="24.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="105.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.5546875" customWidth="1"/>
-    <col min="5" max="5" width="29.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.109375" customWidth="1"/>
-    <col min="7" max="7" width="9.33203125" customWidth="1"/>
+    <col min="1" max="1" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="105.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.5703125" customWidth="1"/>
+    <col min="5" max="5" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.140625" customWidth="1"/>
+    <col min="7" max="7" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="6" customFormat="1" ht="18.600000000000001" thickBot="1">
+    <row r="1" spans="1:7" s="6" customFormat="1" ht="19.5" thickBot="1">
       <c r="A1" s="6" t="s">
         <v>2</v>
       </c>
@@ -1249,10 +1294,10 @@
         <v>11</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" s="3" customFormat="1" ht="15" thickTop="1"/>
+        <v>183</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="3" customFormat="1" ht="15.75" thickTop="1"/>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>9</v>
@@ -1290,7 +1335,7 @@
         <v>12</v>
       </c>
       <c r="G4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1310,7 +1355,7 @@
         <v>12</v>
       </c>
       <c r="G5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1330,7 +1375,7 @@
         <v>12</v>
       </c>
       <c r="G6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1350,7 +1395,7 @@
         <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1370,7 +1415,7 @@
         <v>12</v>
       </c>
       <c r="G8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1390,7 +1435,7 @@
         <v>12</v>
       </c>
       <c r="G9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1410,7 +1455,7 @@
         <v>12</v>
       </c>
       <c r="G10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="3" customFormat="1"/>
@@ -1454,10 +1499,10 @@
         <v>29</v>
       </c>
       <c r="B15" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C15" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D15" t="s">
         <v>32</v>
@@ -1494,7 +1539,7 @@
         <v>40</v>
       </c>
       <c r="E18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F18" t="s">
         <v>34</v>
@@ -1506,10 +1551,10 @@
         <v>43</v>
       </c>
       <c r="B20" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
         <v>12</v>
@@ -1520,10 +1565,10 @@
         <v>43</v>
       </c>
       <c r="B21" t="s">
-        <v>44</v>
+        <v>265</v>
       </c>
       <c r="C21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
         <v>12</v>
@@ -1534,13 +1579,13 @@
         <v>43</v>
       </c>
       <c r="B22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F22" t="s">
         <v>34</v>
@@ -1551,13 +1596,13 @@
         <v>43</v>
       </c>
       <c r="B23" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" t="s">
         <v>48</v>
-      </c>
-      <c r="C23" t="s">
-        <v>51</v>
-      </c>
-      <c r="D23" t="s">
-        <v>49</v>
       </c>
       <c r="F23" t="s">
         <v>34</v>
@@ -1568,10 +1613,10 @@
         <v>43</v>
       </c>
       <c r="B24" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" t="s">
         <v>52</v>
-      </c>
-      <c r="C24" t="s">
-        <v>53</v>
       </c>
       <c r="F24" t="s">
         <v>34</v>
@@ -1582,16 +1627,16 @@
         <v>43</v>
       </c>
       <c r="B25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C25" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F25" t="s">
         <v>12</v>
       </c>
       <c r="G25" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1599,16 +1644,16 @@
         <v>43</v>
       </c>
       <c r="B26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C26" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F26" t="s">
         <v>12</v>
       </c>
       <c r="G26" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1616,22 +1661,22 @@
         <v>43</v>
       </c>
       <c r="B27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D27" t="s">
         <v>59</v>
       </c>
-      <c r="D27" t="s">
-        <v>60</v>
-      </c>
       <c r="E27" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F27" t="s">
         <v>34</v>
       </c>
       <c r="G27" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1639,28 +1684,28 @@
         <v>43</v>
       </c>
       <c r="B28" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C28" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F28" t="s">
         <v>12</v>
       </c>
       <c r="G28" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="29" spans="1:7" s="4" customFormat="1"/>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
+        <v>63</v>
+      </c>
+      <c r="B30" t="s">
         <v>64</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30" t="s">
         <v>65</v>
-      </c>
-      <c r="C30" t="s">
-        <v>66</v>
       </c>
       <c r="E30" t="s">
         <v>41</v>
@@ -1672,16 +1717,16 @@
     <row r="31" spans="1:7" s="3" customFormat="1"/>
     <row r="32" spans="1:7">
       <c r="A32" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B32" t="s">
+        <v>66</v>
+      </c>
+      <c r="C32" t="s">
         <v>67</v>
       </c>
-      <c r="C32" t="s">
-        <v>68</v>
-      </c>
       <c r="E32" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F32" t="s">
         <v>12</v>
@@ -1689,53 +1734,53 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B33" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C33" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E33" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F33" t="s">
         <v>12</v>
       </c>
       <c r="G33" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B34" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C34" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D34" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F34" t="s">
         <v>33</v>
       </c>
       <c r="G34" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B35" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C35" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>38</v>
@@ -1744,116 +1789,116 @@
         <v>33</v>
       </c>
       <c r="G35" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B36" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C36" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D36" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F36" t="s">
         <v>34</v>
       </c>
       <c r="G36" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B37" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C37" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D37" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F37" t="s">
         <v>34</v>
       </c>
       <c r="G37" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B38" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C38" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D38" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F38" t="s">
         <v>34</v>
       </c>
       <c r="G38" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" t="s">
+        <v>152</v>
+      </c>
+      <c r="B39" t="s">
+        <v>88</v>
+      </c>
+      <c r="C39" t="s">
         <v>153</v>
       </c>
-      <c r="B39" t="s">
-        <v>89</v>
-      </c>
-      <c r="C39" t="s">
-        <v>154</v>
-      </c>
       <c r="D39" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F39" t="s">
         <v>34</v>
       </c>
       <c r="G39" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="40" spans="1:7" s="4" customFormat="1"/>
     <row r="41" spans="1:7">
       <c r="A41" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B41" t="s">
         <v>30</v>
       </c>
       <c r="C41" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F41" t="s">
         <v>33</v>
       </c>
       <c r="G41" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B42" t="s">
+        <v>79</v>
+      </c>
+      <c r="C42" t="s">
         <v>80</v>
-      </c>
-      <c r="C42" t="s">
-        <v>81</v>
       </c>
       <c r="E42" t="s">
         <v>41</v>
@@ -1862,452 +1907,452 @@
         <v>34</v>
       </c>
       <c r="G42" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B43" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C43" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F43" t="s">
         <v>12</v>
       </c>
       <c r="G43" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="44" spans="1:7" s="4" customFormat="1"/>
     <row r="45" spans="1:7">
       <c r="A45" t="s">
+        <v>94</v>
+      </c>
+      <c r="B45" t="s">
         <v>95</v>
       </c>
-      <c r="B45" t="s">
-        <v>96</v>
-      </c>
       <c r="C45" t="s">
+        <v>104</v>
+      </c>
+      <c r="E45" t="s">
         <v>105</v>
-      </c>
-      <c r="E45" t="s">
-        <v>106</v>
       </c>
       <c r="F45" t="s">
         <v>12</v>
       </c>
       <c r="G45" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B46" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C46" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F46" t="s">
         <v>34</v>
       </c>
       <c r="G46" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B47" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C47" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F47" t="s">
         <v>34</v>
       </c>
       <c r="G47" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B48" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C48" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E48" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F48" t="s">
         <v>12</v>
       </c>
       <c r="G48" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B49" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C49" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E49" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F49" t="s">
         <v>12</v>
       </c>
       <c r="G49" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B50" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C50" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E50" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F50" t="s">
         <v>12</v>
       </c>
       <c r="G50" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B51" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C51" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F51" t="s">
         <v>12</v>
       </c>
       <c r="G51" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B52" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C52" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F52" t="s">
         <v>34</v>
       </c>
       <c r="G52" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B53" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C53" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D53" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F53" t="s">
         <v>34</v>
       </c>
       <c r="G53" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="54" spans="1:7" s="4" customFormat="1"/>
     <row r="55" spans="1:7">
       <c r="A55" t="s">
+        <v>119</v>
+      </c>
+      <c r="B55" t="s">
         <v>120</v>
       </c>
-      <c r="B55" t="s">
+      <c r="C55" t="s">
         <v>121</v>
       </c>
-      <c r="C55" t="s">
+      <c r="E55" t="s">
         <v>122</v>
-      </c>
-      <c r="E55" t="s">
-        <v>123</v>
       </c>
       <c r="F55" t="s">
         <v>12</v>
       </c>
       <c r="G55" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B56" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C56" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D56" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F56" t="s">
         <v>34</v>
       </c>
       <c r="G56" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B57" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C57" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D57" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F57" t="s">
         <v>34</v>
       </c>
       <c r="G57" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B58" t="s">
+        <v>127</v>
+      </c>
+      <c r="C58" t="s">
         <v>128</v>
       </c>
-      <c r="C58" t="s">
+      <c r="E58" t="s">
         <v>129</v>
-      </c>
-      <c r="E58" t="s">
-        <v>130</v>
       </c>
       <c r="F58" t="s">
         <v>12</v>
       </c>
       <c r="G58" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B59" t="s">
+        <v>131</v>
+      </c>
+      <c r="C59" t="s">
         <v>132</v>
       </c>
-      <c r="C59" t="s">
-        <v>133</v>
-      </c>
       <c r="D59" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F59" t="s">
         <v>34</v>
       </c>
       <c r="G59" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B60" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C60" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F60" t="s">
         <v>34</v>
       </c>
       <c r="G60" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B61" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C61" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E61" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F61" t="s">
         <v>12</v>
       </c>
       <c r="G61" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B62" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C62" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F62" t="s">
         <v>34</v>
       </c>
       <c r="G62" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B63" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C63" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D63" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F63" t="s">
         <v>34</v>
       </c>
       <c r="G63" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B64" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C64" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F64" t="s">
         <v>34</v>
       </c>
       <c r="G64" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="65" spans="1:7">
       <c r="A65" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B65" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C65" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E65" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F65" t="s">
         <v>12</v>
       </c>
       <c r="G65" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="66" spans="1:7">
       <c r="A66" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B66" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C66" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F66" t="s">
         <v>34</v>
       </c>
       <c r="G66" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="67" spans="1:7" s="3" customFormat="1"/>
     <row r="68" spans="1:7">
       <c r="A68" t="s">
+        <v>154</v>
+      </c>
+      <c r="B68" t="s">
         <v>155</v>
       </c>
-      <c r="B68" t="s">
-        <v>156</v>
-      </c>
       <c r="C68" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E68" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F68" t="s">
         <v>12</v>
@@ -2315,144 +2360,144 @@
     </row>
     <row r="69" spans="1:7">
       <c r="A69" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B69" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C69" t="s">
+        <v>168</v>
+      </c>
+      <c r="E69" t="s">
         <v>169</v>
-      </c>
-      <c r="E69" t="s">
-        <v>170</v>
       </c>
       <c r="F69" t="s">
         <v>12</v>
       </c>
       <c r="G69" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="70" spans="1:7">
       <c r="A70" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B70" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C70" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D70" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F70" t="s">
         <v>34</v>
       </c>
       <c r="G70" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="71" spans="1:7">
       <c r="A71" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C71" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E71" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F71" t="s">
         <v>12</v>
       </c>
       <c r="G71" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="72" spans="1:7">
       <c r="A72" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B72" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C72" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D72" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F72" t="s">
         <v>34</v>
       </c>
       <c r="G72" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="73" spans="1:7">
       <c r="A73" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B73" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C73" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F73" t="s">
         <v>34</v>
       </c>
       <c r="G73" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="74" spans="1:7">
       <c r="A74" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B74" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D74" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F74" t="s">
         <v>34</v>
       </c>
       <c r="G74" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="75" spans="1:7">
       <c r="A75" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B75" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C75" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F75" t="s">
         <v>12</v>
       </c>
       <c r="G75" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="76" spans="1:7">
       <c r="A76" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B76" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C76" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>38</v>
@@ -2461,61 +2506,61 @@
         <v>34</v>
       </c>
       <c r="G76" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="77" spans="1:7">
       <c r="A77" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B77" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F77" t="s">
         <v>33</v>
       </c>
       <c r="G77" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="78" spans="1:7">
       <c r="A78" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B78" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C78" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D78" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F78" t="s">
-        <v>33</v>
+        <v>278</v>
       </c>
       <c r="G78" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="79" spans="1:7">
       <c r="A79" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B79" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C79" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F79" t="s">
         <v>12</v>
       </c>
       <c r="G79" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
   </sheetData>
@@ -2525,23 +2570,153 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7456E893-AAE2-46E8-B27B-5802713411C5}">
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.28515625" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="19.5" thickBot="1">
+      <c r="A1" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" thickTop="1">
+      <c r="A2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>189</v>
+      </c>
+      <c r="B3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>190</v>
+      </c>
+      <c r="B4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>191</v>
+      </c>
+      <c r="B5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>192</v>
+      </c>
+      <c r="B6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>194</v>
+      </c>
+      <c r="B7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>193</v>
+      </c>
+      <c r="B8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>196</v>
+      </c>
+      <c r="B9" t="s">
+        <v>124</v>
+      </c>
+      <c r="C9" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>195</v>
+      </c>
+      <c r="B10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" t="s">
+        <v>275</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADD3A244-A428-4913-B65E-EBCBF7BE8703}">
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="49.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="6" customFormat="1" ht="18.600000000000001" thickBot="1">
+    <row r="1" spans="1:3" s="6" customFormat="1" ht="19.5" thickBot="1">
       <c r="A1" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>0</v>
@@ -2550,181 +2725,181 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" thickTop="1">
+    <row r="2" spans="1:3" ht="15.75" thickTop="1">
       <c r="A2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C8" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C9" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B10" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C10" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="11" spans="1:3" s="4" customFormat="1"/>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B12" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C12" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B13" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C13" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B14" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C14" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B15" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C15" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B16" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C16" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B17" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C17" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B18" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C18" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="19" spans="1:3" s="4" customFormat="1"/>
@@ -2733,24 +2908,24 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40004C57-D155-48AF-927D-0788AC62B8A6}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="43" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18.600000000000001" thickBot="1">
+    <row r="1" spans="1:3" ht="19.5" thickBot="1">
       <c r="A1" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>0</v>
@@ -2759,103 +2934,137 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" thickTop="1">
+    <row r="2" spans="1:3" ht="15.75" thickTop="1">
       <c r="A2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B7" t="s">
+        <v>254</v>
+      </c>
+      <c r="C7" t="s">
         <v>256</v>
-      </c>
-      <c r="C7" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B8" t="s">
+        <v>255</v>
+      </c>
+      <c r="C8" t="s">
         <v>257</v>
-      </c>
-      <c r="C8" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B9" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C9" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B10" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C10" t="s">
-        <v>230</v>
+        <v>229</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" s="8" customFormat="1"/>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>266</v>
+      </c>
+      <c r="B12" t="s">
+        <v>267</v>
+      </c>
+      <c r="C12" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>266</v>
+      </c>
+      <c r="B13" t="s">
+        <v>268</v>
+      </c>
+      <c r="C13" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>266</v>
+      </c>
+      <c r="B14" t="s">
+        <v>269</v>
+      </c>
+      <c r="C14" t="s">
+        <v>270</v>
       </c>
     </row>
   </sheetData>
@@ -2863,24 +3072,24 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10468954-E1B9-4591-9B3C-ADA4E2A7FDB0}">
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="29" customWidth="1"/>
-    <col min="2" max="2" width="26.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.42578125" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="6" customFormat="1" ht="18.600000000000001" thickBot="1">
+    <row r="1" spans="1:6" s="6" customFormat="1" ht="19.5" thickBot="1">
       <c r="A1" s="6" t="s">
         <v>2</v>
       </c>
@@ -2888,242 +3097,243 @@
         <v>0</v>
       </c>
       <c r="C1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>26</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>42</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>11</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15" thickTop="1">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" thickTop="1">
       <c r="A2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B2" t="s">
-        <v>232</v>
+        <v>231</v>
+      </c>
+      <c r="C2" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>255</v>
-      </c>
-      <c r="B3" t="s">
-        <v>236</v>
+        <v>253</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B4" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="4" customFormat="1"/>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B7" t="s">
-        <v>234</v>
-      </c>
-      <c r="C7" t="s">
-        <v>261</v>
+        <v>233</v>
+      </c>
+      <c r="D7" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B9" t="s">
-        <v>238</v>
-      </c>
-      <c r="D9" t="s">
-        <v>41</v>
+        <v>236</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="4" customFormat="1"/>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B11" t="s">
-        <v>239</v>
-      </c>
-      <c r="C11" t="s">
-        <v>90</v>
+        <v>237</v>
+      </c>
+      <c r="D11" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B12" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B13" t="s">
-        <v>241</v>
-      </c>
-      <c r="C13" t="s">
-        <v>90</v>
+        <v>239</v>
+      </c>
+      <c r="D13" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B14" t="s">
-        <v>242</v>
-      </c>
-      <c r="C14" t="s">
-        <v>90</v>
+        <v>240</v>
+      </c>
+      <c r="D14" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
+        <v>207</v>
+      </c>
+      <c r="B15" t="s">
+        <v>241</v>
+      </c>
+      <c r="D15" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" s="4" customFormat="1"/>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>206</v>
+      </c>
+      <c r="B17" t="s">
+        <v>242</v>
+      </c>
+      <c r="D17" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>206</v>
+      </c>
+      <c r="B18" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>206</v>
+      </c>
+      <c r="B19" t="s">
+        <v>244</v>
+      </c>
+      <c r="D19" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>206</v>
+      </c>
+      <c r="B20" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>206</v>
+      </c>
+      <c r="B21" t="s">
+        <v>246</v>
+      </c>
+      <c r="D21" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>206</v>
+      </c>
+      <c r="B22" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>206</v>
+      </c>
+      <c r="B23" t="s">
+        <v>248</v>
+      </c>
+      <c r="D23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>206</v>
+      </c>
+      <c r="B24" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>206</v>
+      </c>
+      <c r="B25" t="s">
+        <v>250</v>
+      </c>
+      <c r="D25" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>206</v>
+      </c>
+      <c r="B26" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" s="4" customFormat="1"/>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
         <v>208</v>
       </c>
-      <c r="B15" t="s">
-        <v>243</v>
-      </c>
-      <c r="C15" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" s="4" customFormat="1"/>
-    <row r="17" spans="1:3">
-      <c r="A17" t="s">
-        <v>207</v>
-      </c>
-      <c r="B17" t="s">
-        <v>244</v>
-      </c>
-      <c r="C17" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="s">
-        <v>207</v>
-      </c>
-      <c r="B18" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>207</v>
-      </c>
-      <c r="B19" t="s">
-        <v>246</v>
-      </c>
-      <c r="C19" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
-        <v>207</v>
-      </c>
-      <c r="B20" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" t="s">
-        <v>207</v>
-      </c>
-      <c r="B21" t="s">
-        <v>248</v>
-      </c>
-      <c r="C21" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
-        <v>207</v>
-      </c>
-      <c r="B22" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="s">
-        <v>207</v>
-      </c>
-      <c r="B23" t="s">
-        <v>250</v>
-      </c>
-      <c r="C23" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" t="s">
-        <v>207</v>
-      </c>
-      <c r="B24" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
-        <v>207</v>
-      </c>
-      <c r="B25" t="s">
+      <c r="B28" t="s">
         <v>252</v>
       </c>
-      <c r="C25" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" t="s">
-        <v>207</v>
-      </c>
-      <c r="B26" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" s="4" customFormat="1"/>
-    <row r="28" spans="1:3">
-      <c r="A28" t="s">
-        <v>209</v>
-      </c>
-      <c r="B28" t="s">
-        <v>254</v>
-      </c>
-      <c r="C28" t="s">
-        <v>90</v>
-      </c>
-    </row>
+      <c r="D28" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" s="4" customFormat="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/controlled_vocabulary.xlsx
+++ b/controlled_vocabulary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aliu319\Documents\GitHub\ofet-db\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\Documents\GitHub\ofet-db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADEBB520-DF08-4F76-B469-05448AE68F5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{577B867E-B18E-4559-AE9C-0BDB04F9C8C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main_table_features" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="280">
   <si>
     <t>name</t>
   </si>
@@ -504,9 +504,6 @@
     <t>Frequency of a perturbation, such as vibration or sonication</t>
   </si>
   <si>
-    <t>measurement (device)</t>
-  </si>
-  <si>
     <t>measurement_type</t>
   </si>
   <si>
@@ -877,6 +874,12 @@
   </si>
   <si>
     <t>array[int]</t>
+  </si>
+  <si>
+    <t>device</t>
+  </si>
+  <si>
+    <t>namespace</t>
   </si>
 </sst>
 </file>
@@ -961,7 +964,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -975,7 +978,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1256,11 +1258,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G79"/>
+  <dimension ref="A1:G67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C79" sqref="C79"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B74" sqref="B74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1294,7 +1296,7 @@
         <v>11</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="3" customFormat="1" ht="15.75" thickTop="1"/>
@@ -1335,7 +1337,7 @@
         <v>12</v>
       </c>
       <c r="G4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1355,7 +1357,7 @@
         <v>12</v>
       </c>
       <c r="G5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1375,7 +1377,7 @@
         <v>12</v>
       </c>
       <c r="G6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1395,7 +1397,7 @@
         <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1415,7 +1417,7 @@
         <v>12</v>
       </c>
       <c r="G8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1435,7 +1437,7 @@
         <v>12</v>
       </c>
       <c r="G9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1455,7 +1457,7 @@
         <v>12</v>
       </c>
       <c r="G10" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="3" customFormat="1"/>
@@ -1499,10 +1501,10 @@
         <v>29</v>
       </c>
       <c r="B15" t="s">
+        <v>260</v>
+      </c>
+      <c r="C15" t="s">
         <v>261</v>
-      </c>
-      <c r="C15" t="s">
-        <v>262</v>
       </c>
       <c r="D15" t="s">
         <v>32</v>
@@ -1551,7 +1553,7 @@
         <v>43</v>
       </c>
       <c r="B20" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C20" t="s">
         <v>44</v>
@@ -1565,7 +1567,7 @@
         <v>43</v>
       </c>
       <c r="B21" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C21" t="s">
         <v>45</v>
@@ -1630,13 +1632,13 @@
         <v>53</v>
       </c>
       <c r="C25" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F25" t="s">
         <v>12</v>
       </c>
       <c r="G25" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1653,7 +1655,7 @@
         <v>12</v>
       </c>
       <c r="G26" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1676,7 +1678,7 @@
         <v>34</v>
       </c>
       <c r="G27" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1693,7 +1695,7 @@
         <v>12</v>
       </c>
       <c r="G28" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="29" spans="1:7" s="4" customFormat="1"/>
@@ -1749,7 +1751,7 @@
         <v>12</v>
       </c>
       <c r="G33" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1769,7 +1771,7 @@
         <v>33</v>
       </c>
       <c r="G34" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1789,7 +1791,7 @@
         <v>33</v>
       </c>
       <c r="G35" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1809,7 +1811,7 @@
         <v>34</v>
       </c>
       <c r="G36" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1829,7 +1831,7 @@
         <v>34</v>
       </c>
       <c r="G37" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1849,7 +1851,7 @@
         <v>34</v>
       </c>
       <c r="G38" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1869,7 +1871,7 @@
         <v>34</v>
       </c>
       <c r="G39" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="40" spans="1:7" s="4" customFormat="1"/>
@@ -1887,7 +1889,7 @@
         <v>33</v>
       </c>
       <c r="G41" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1907,7 +1909,7 @@
         <v>34</v>
       </c>
       <c r="G42" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1924,7 +1926,7 @@
         <v>12</v>
       </c>
       <c r="G43" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="44" spans="1:7" s="4" customFormat="1"/>
@@ -1945,7 +1947,7 @@
         <v>12</v>
       </c>
       <c r="G45" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -1965,7 +1967,7 @@
         <v>34</v>
       </c>
       <c r="G46" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -1985,7 +1987,7 @@
         <v>34</v>
       </c>
       <c r="G47" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -2005,7 +2007,7 @@
         <v>12</v>
       </c>
       <c r="G48" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -2025,7 +2027,7 @@
         <v>12</v>
       </c>
       <c r="G49" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -2045,7 +2047,7 @@
         <v>12</v>
       </c>
       <c r="G50" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -2062,7 +2064,7 @@
         <v>12</v>
       </c>
       <c r="G51" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -2082,7 +2084,7 @@
         <v>34</v>
       </c>
       <c r="G52" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -2102,7 +2104,7 @@
         <v>34</v>
       </c>
       <c r="G53" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="54" spans="1:7" s="4" customFormat="1"/>
@@ -2123,7 +2125,7 @@
         <v>12</v>
       </c>
       <c r="G55" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -2143,7 +2145,7 @@
         <v>34</v>
       </c>
       <c r="G56" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -2163,7 +2165,7 @@
         <v>34</v>
       </c>
       <c r="G57" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -2183,7 +2185,7 @@
         <v>12</v>
       </c>
       <c r="G58" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -2203,7 +2205,7 @@
         <v>34</v>
       </c>
       <c r="G59" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -2220,7 +2222,7 @@
         <v>34</v>
       </c>
       <c r="G60" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -2240,7 +2242,7 @@
         <v>12</v>
       </c>
       <c r="G61" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -2260,7 +2262,7 @@
         <v>34</v>
       </c>
       <c r="G62" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -2280,7 +2282,7 @@
         <v>34</v>
       </c>
       <c r="G63" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -2297,7 +2299,7 @@
         <v>34</v>
       </c>
       <c r="G64" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -2317,7 +2319,7 @@
         <v>12</v>
       </c>
       <c r="G65" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -2337,232 +2339,10 @@
         <v>34</v>
       </c>
       <c r="G66" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="67" spans="1:7" s="3" customFormat="1"/>
-    <row r="68" spans="1:7">
-      <c r="A68" t="s">
-        <v>154</v>
-      </c>
-      <c r="B68" t="s">
-        <v>155</v>
-      </c>
-      <c r="C68" t="s">
-        <v>167</v>
-      </c>
-      <c r="E68" t="s">
-        <v>171</v>
-      </c>
-      <c r="F68" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
-      <c r="A69" t="s">
-        <v>154</v>
-      </c>
-      <c r="B69" t="s">
-        <v>156</v>
-      </c>
-      <c r="C69" t="s">
-        <v>168</v>
-      </c>
-      <c r="E69" t="s">
-        <v>169</v>
-      </c>
-      <c r="F69" t="s">
-        <v>12</v>
-      </c>
-      <c r="G69" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
-      <c r="A70" t="s">
-        <v>154</v>
-      </c>
-      <c r="B70" t="s">
-        <v>157</v>
-      </c>
-      <c r="C70" t="s">
-        <v>170</v>
-      </c>
-      <c r="D70" t="s">
-        <v>180</v>
-      </c>
-      <c r="F70" t="s">
-        <v>34</v>
-      </c>
-      <c r="G70" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7">
-      <c r="A71" t="s">
-        <v>154</v>
-      </c>
-      <c r="B71" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="C71" t="s">
-        <v>172</v>
-      </c>
-      <c r="E71" t="s">
-        <v>182</v>
-      </c>
-      <c r="F71" t="s">
-        <v>12</v>
-      </c>
-      <c r="G71" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
-      <c r="A72" t="s">
-        <v>154</v>
-      </c>
-      <c r="B72" t="s">
-        <v>159</v>
-      </c>
-      <c r="C72" t="s">
-        <v>174</v>
-      </c>
-      <c r="D72" t="s">
-        <v>179</v>
-      </c>
-      <c r="F72" t="s">
-        <v>34</v>
-      </c>
-      <c r="G72" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
-      <c r="A73" t="s">
-        <v>154</v>
-      </c>
-      <c r="B73" t="s">
-        <v>160</v>
-      </c>
-      <c r="C73" t="s">
-        <v>173</v>
-      </c>
-      <c r="F73" t="s">
-        <v>34</v>
-      </c>
-      <c r="G73" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
-      <c r="A74" t="s">
-        <v>154</v>
-      </c>
-      <c r="B74" t="s">
-        <v>161</v>
-      </c>
-      <c r="D74" t="s">
-        <v>181</v>
-      </c>
-      <c r="F74" t="s">
-        <v>34</v>
-      </c>
-      <c r="G74" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
-      <c r="A75" t="s">
-        <v>154</v>
-      </c>
-      <c r="B75" t="s">
-        <v>162</v>
-      </c>
-      <c r="C75" t="s">
-        <v>175</v>
-      </c>
-      <c r="F75" t="s">
-        <v>12</v>
-      </c>
-      <c r="G75" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
-      <c r="A76" t="s">
-        <v>154</v>
-      </c>
-      <c r="B76" t="s">
-        <v>163</v>
-      </c>
-      <c r="C76" t="s">
-        <v>176</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F76" t="s">
-        <v>34</v>
-      </c>
-      <c r="G76" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
-      <c r="A77" t="s">
-        <v>154</v>
-      </c>
-      <c r="B77" t="s">
-        <v>164</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="F77" t="s">
-        <v>33</v>
-      </c>
-      <c r="G77" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
-      <c r="A78" t="s">
-        <v>154</v>
-      </c>
-      <c r="B78" t="s">
-        <v>165</v>
-      </c>
-      <c r="C78" t="s">
-        <v>177</v>
-      </c>
-      <c r="D78" t="s">
-        <v>179</v>
-      </c>
-      <c r="F78" t="s">
-        <v>278</v>
-      </c>
-      <c r="G78" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
-      <c r="A79" t="s">
-        <v>154</v>
-      </c>
-      <c r="B79" t="s">
-        <v>166</v>
-      </c>
-      <c r="C79" t="s">
-        <v>178</v>
-      </c>
-      <c r="F79" t="s">
-        <v>12</v>
-      </c>
-      <c r="G79" t="s">
-        <v>184</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -2573,8 +2353,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7456E893-AAE2-46E8-B27B-5802713411C5}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2586,7 +2366,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="19.5" thickBot="1">
       <c r="A1" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>0</v>
@@ -2597,84 +2377,84 @@
     </row>
     <row r="2" spans="1:3" ht="15.75" thickTop="1">
       <c r="A2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B2" t="s">
         <v>71</v>
       </c>
       <c r="C2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B3" t="s">
         <v>71</v>
       </c>
       <c r="C3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B4" t="s">
         <v>71</v>
       </c>
       <c r="C4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B5" t="s">
         <v>71</v>
       </c>
       <c r="C5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B6" t="s">
         <v>71</v>
       </c>
       <c r="C6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B7" t="s">
         <v>71</v>
       </c>
       <c r="C7" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B8" t="s">
         <v>71</v>
       </c>
       <c r="C8" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B9" t="s">
         <v>124</v>
@@ -2685,13 +2465,13 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B10" t="s">
         <v>71</v>
       </c>
       <c r="C10" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
   </sheetData>
@@ -2716,7 +2496,7 @@
   <sheetData>
     <row r="1" spans="1:3" s="6" customFormat="1" ht="19.5" thickBot="1">
       <c r="A1" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>0</v>
@@ -2730,10 +2510,10 @@
         <v>66</v>
       </c>
       <c r="B2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2741,10 +2521,10 @@
         <v>66</v>
       </c>
       <c r="B3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2752,10 +2532,10 @@
         <v>66</v>
       </c>
       <c r="B4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2763,10 +2543,10 @@
         <v>66</v>
       </c>
       <c r="B5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2774,10 +2554,10 @@
         <v>66</v>
       </c>
       <c r="B6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2785,10 +2565,10 @@
         <v>66</v>
       </c>
       <c r="B7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2796,10 +2576,10 @@
         <v>66</v>
       </c>
       <c r="B8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2807,10 +2587,10 @@
         <v>66</v>
       </c>
       <c r="B9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C9" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2818,10 +2598,10 @@
         <v>66</v>
       </c>
       <c r="B10" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C10" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="11" spans="1:3" s="4" customFormat="1"/>
@@ -2830,10 +2610,10 @@
         <v>120</v>
       </c>
       <c r="B12" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C12" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2841,10 +2621,10 @@
         <v>120</v>
       </c>
       <c r="B13" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C13" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -2852,10 +2632,10 @@
         <v>120</v>
       </c>
       <c r="B14" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C14" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -2863,10 +2643,10 @@
         <v>120</v>
       </c>
       <c r="B15" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C15" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -2874,10 +2654,10 @@
         <v>120</v>
       </c>
       <c r="B16" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C16" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -2885,10 +2665,10 @@
         <v>120</v>
       </c>
       <c r="B17" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C17" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -2896,10 +2676,10 @@
         <v>120</v>
       </c>
       <c r="B18" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C18" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="19" spans="1:3" s="4" customFormat="1"/>
@@ -2925,7 +2705,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="19.5" thickBot="1">
       <c r="A1" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>0</v>
@@ -2936,135 +2716,135 @@
     </row>
     <row r="2" spans="1:3" ht="15.75" thickTop="1">
       <c r="A2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B8" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B9" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C9" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="11" spans="1:3" s="8" customFormat="1"/>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
+        <v>265</v>
+      </c>
+      <c r="B12" t="s">
         <v>266</v>
       </c>
-      <c r="B12" t="s">
-        <v>267</v>
-      </c>
       <c r="C12" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B13" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C13" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B14" t="s">
+        <v>268</v>
+      </c>
+      <c r="C14" t="s">
         <v>269</v>
-      </c>
-      <c r="C14" t="s">
-        <v>270</v>
       </c>
     </row>
   </sheetData>
@@ -3074,22 +2854,23 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10468954-E1B9-4591-9B3C-ADA4E2A7FDB0}">
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.42578125" customWidth="1"/>
+    <col min="3" max="3" width="81.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="6" customFormat="1" ht="19.5" thickBot="1">
+    <row r="1" spans="1:7" s="6" customFormat="1" ht="19.5" thickBot="1">
       <c r="A1" s="6" t="s">
         <v>2</v>
       </c>
@@ -3103,237 +2884,531 @@
         <v>26</v>
       </c>
       <c r="E1" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="6" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" thickTop="1">
+      <c r="A2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B2" t="s">
+        <v>230</v>
+      </c>
+      <c r="C2" t="s">
+        <v>276</v>
+      </c>
+      <c r="G2" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" thickTop="1">
-      <c r="A2" t="s">
-        <v>253</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>252</v>
+      </c>
+      <c r="B3" t="s">
+        <v>272</v>
+      </c>
+      <c r="G3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>252</v>
+      </c>
+      <c r="B4" t="s">
+        <v>234</v>
+      </c>
+      <c r="G4" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>203</v>
+      </c>
+      <c r="B6" t="s">
         <v>231</v>
       </c>
-      <c r="C2" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>253</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>253</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="G6" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>203</v>
+      </c>
+      <c r="B7" t="s">
+        <v>232</v>
+      </c>
+      <c r="D7" t="s">
+        <v>258</v>
+      </c>
+      <c r="G7" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>203</v>
+      </c>
+      <c r="B8" t="s">
+        <v>233</v>
+      </c>
+      <c r="G8" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>204</v>
+      </c>
+      <c r="B9" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" s="4" customFormat="1"/>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
-        <v>204</v>
-      </c>
-      <c r="B6" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
-        <v>204</v>
-      </c>
-      <c r="B7" t="s">
-        <v>233</v>
-      </c>
-      <c r="D7" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" t="s">
-        <v>204</v>
-      </c>
-      <c r="B8" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" t="s">
-        <v>205</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="G9" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>206</v>
+      </c>
+      <c r="B11" t="s">
         <v>236</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" s="4" customFormat="1"/>
-    <row r="11" spans="1:6">
-      <c r="A11" t="s">
-        <v>207</v>
-      </c>
-      <c r="B11" t="s">
-        <v>237</v>
       </c>
       <c r="D11" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="G11" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B12" t="s">
+        <v>237</v>
+      </c>
+      <c r="G12" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>206</v>
+      </c>
+      <c r="B13" t="s">
         <v>238</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" t="s">
-        <v>207</v>
-      </c>
-      <c r="B13" t="s">
-        <v>239</v>
       </c>
       <c r="D13" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="G13" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B14" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D14" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="G14" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B15" t="s">
+        <v>240</v>
+      </c>
+      <c r="D15" t="s">
+        <v>259</v>
+      </c>
+      <c r="G15" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>205</v>
+      </c>
+      <c r="B17" t="s">
         <v>241</v>
       </c>
-      <c r="D15" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" s="4" customFormat="1"/>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s">
-        <v>206</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="D17" t="s">
+        <v>257</v>
+      </c>
+      <c r="G17" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>205</v>
+      </c>
+      <c r="B18" t="s">
         <v>242</v>
       </c>
-      <c r="D17" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" t="s">
-        <v>206</v>
-      </c>
-      <c r="B18" t="s">
+      <c r="G18" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>205</v>
+      </c>
+      <c r="B19" t="s">
         <v>243</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" t="s">
-        <v>206</v>
-      </c>
-      <c r="B19" t="s">
-        <v>244</v>
       </c>
       <c r="D19" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="G19" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B20" t="s">
+        <v>244</v>
+      </c>
+      <c r="G20" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" t="s">
+        <v>205</v>
+      </c>
+      <c r="B21" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" t="s">
-        <v>206</v>
-      </c>
-      <c r="B21" t="s">
+      <c r="D21" t="s">
+        <v>257</v>
+      </c>
+      <c r="G21" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
+        <v>205</v>
+      </c>
+      <c r="B22" t="s">
         <v>246</v>
       </c>
-      <c r="D21" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" t="s">
-        <v>206</v>
-      </c>
-      <c r="B22" t="s">
+      <c r="G22" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
+        <v>205</v>
+      </c>
+      <c r="B23" t="s">
         <v>247</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" t="s">
-        <v>206</v>
-      </c>
-      <c r="B23" t="s">
-        <v>248</v>
       </c>
       <c r="D23" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="G23" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B24" t="s">
+        <v>248</v>
+      </c>
+      <c r="G24" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" t="s">
+        <v>205</v>
+      </c>
+      <c r="B25" t="s">
         <v>249</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" t="s">
-        <v>206</v>
-      </c>
-      <c r="B25" t="s">
-        <v>250</v>
       </c>
       <c r="D25" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="26" spans="1:4">
+      <c r="G25" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B26" t="s">
+        <v>250</v>
+      </c>
+      <c r="G26" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" s="4" customFormat="1"/>
+    <row r="28" spans="1:7">
+      <c r="A28" t="s">
+        <v>207</v>
+      </c>
+      <c r="B28" t="s">
         <v>251</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" s="4" customFormat="1"/>
-    <row r="28" spans="1:4">
-      <c r="A28" t="s">
-        <v>208</v>
-      </c>
-      <c r="B28" t="s">
-        <v>252</v>
       </c>
       <c r="D28" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" s="4" customFormat="1"/>
+      <c r="G28" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" s="4" customFormat="1"/>
+    <row r="30" spans="1:7">
+      <c r="A30" t="s">
+        <v>278</v>
+      </c>
+      <c r="B30" t="s">
+        <v>154</v>
+      </c>
+      <c r="C30" t="s">
+        <v>166</v>
+      </c>
+      <c r="E30" t="s">
+        <v>170</v>
+      </c>
+      <c r="F30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" t="s">
+        <v>278</v>
+      </c>
+      <c r="B31" t="s">
+        <v>155</v>
+      </c>
+      <c r="C31" t="s">
+        <v>167</v>
+      </c>
+      <c r="E31" t="s">
+        <v>168</v>
+      </c>
+      <c r="F31" t="s">
+        <v>12</v>
+      </c>
+      <c r="G31" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" t="s">
+        <v>278</v>
+      </c>
+      <c r="B32" t="s">
+        <v>156</v>
+      </c>
+      <c r="C32" t="s">
+        <v>169</v>
+      </c>
+      <c r="D32" t="s">
+        <v>179</v>
+      </c>
+      <c r="F32" t="s">
+        <v>34</v>
+      </c>
+      <c r="G32" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" t="s">
+        <v>278</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="C33" t="s">
+        <v>171</v>
+      </c>
+      <c r="E33" t="s">
+        <v>181</v>
+      </c>
+      <c r="F33" t="s">
+        <v>12</v>
+      </c>
+      <c r="G33" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" t="s">
+        <v>278</v>
+      </c>
+      <c r="B34" t="s">
+        <v>158</v>
+      </c>
+      <c r="C34" t="s">
+        <v>173</v>
+      </c>
+      <c r="D34" t="s">
+        <v>178</v>
+      </c>
+      <c r="F34" t="s">
+        <v>34</v>
+      </c>
+      <c r="G34" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" t="s">
+        <v>278</v>
+      </c>
+      <c r="B35" t="s">
+        <v>159</v>
+      </c>
+      <c r="C35" t="s">
+        <v>172</v>
+      </c>
+      <c r="F35" t="s">
+        <v>34</v>
+      </c>
+      <c r="G35" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" t="s">
+        <v>278</v>
+      </c>
+      <c r="B36" t="s">
+        <v>160</v>
+      </c>
+      <c r="D36" t="s">
+        <v>180</v>
+      </c>
+      <c r="F36" t="s">
+        <v>34</v>
+      </c>
+      <c r="G36" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" t="s">
+        <v>278</v>
+      </c>
+      <c r="B37" t="s">
+        <v>161</v>
+      </c>
+      <c r="C37" t="s">
+        <v>174</v>
+      </c>
+      <c r="F37" t="s">
+        <v>12</v>
+      </c>
+      <c r="G37" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" t="s">
+        <v>278</v>
+      </c>
+      <c r="B38" t="s">
+        <v>162</v>
+      </c>
+      <c r="C38" t="s">
+        <v>175</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F38" t="s">
+        <v>34</v>
+      </c>
+      <c r="G38" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" t="s">
+        <v>278</v>
+      </c>
+      <c r="B39" t="s">
+        <v>163</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="F39" t="s">
+        <v>33</v>
+      </c>
+      <c r="G39" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" t="s">
+        <v>278</v>
+      </c>
+      <c r="B40" t="s">
+        <v>164</v>
+      </c>
+      <c r="C40" t="s">
+        <v>176</v>
+      </c>
+      <c r="D40" t="s">
+        <v>178</v>
+      </c>
+      <c r="F40" t="s">
+        <v>277</v>
+      </c>
+      <c r="G40" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" t="s">
+        <v>278</v>
+      </c>
+      <c r="B41" t="s">
+        <v>165</v>
+      </c>
+      <c r="C41" t="s">
+        <v>177</v>
+      </c>
+      <c r="F41" t="s">
+        <v>12</v>
+      </c>
+      <c r="G41" t="s">
+        <v>183</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/controlled_vocabulary.xlsx
+++ b/controlled_vocabulary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\Documents\GitHub\ofet-db\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aliu319\Documents\GitHub\ofet-db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{577B867E-B18E-4559-AE9C-0BDB04F9C8C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48121656-EC18-4026-897E-A085FF1B1DDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main_table_features" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="280">
   <si>
     <t>name</t>
   </si>
@@ -1260,9 +1260,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B74" sqref="B74"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1526,6 +1526,12 @@
       <c r="D16" s="2" t="s">
         <v>38</v>
       </c>
+      <c r="F16" t="s">
+        <v>34</v>
+      </c>
+      <c r="G16" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="17" spans="1:7" s="4" customFormat="1">
       <c r="D17" s="5"/>
@@ -2353,8 +2359,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7456E893-AAE2-46E8-B27B-5802713411C5}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/controlled_vocabulary.xlsx
+++ b/controlled_vocabulary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aliu319\Documents\GitHub\ofet-db\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\Documents\GitHub\ofet-db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48121656-EC18-4026-897E-A085FF1B1DDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F7360C8-CBCB-43BF-A3EE-0F52AC49C0E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main_table_features" sheetId="1" r:id="rId1"/>
@@ -1262,7 +1262,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
+      <selection pane="bottomLeft" activeCell="C38" sqref="C38:C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/controlled_vocabulary.xlsx
+++ b/controlled_vocabulary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\Documents\GitHub\ofet-db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F7360C8-CBCB-43BF-A3EE-0F52AC49C0E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B22D5E64-0D24-4A32-B56F-970DCFCA3F15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main_table_features" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="280">
   <si>
     <t>name</t>
   </si>
@@ -399,9 +399,6 @@
     <t>['n-doped Si', 'glass', 'PET']</t>
   </si>
   <si>
-    <t>coating_process</t>
-  </si>
-  <si>
     <t>deposition_type</t>
   </si>
   <si>
@@ -880,6 +877,9 @@
   </si>
   <si>
     <t>namespace</t>
+  </si>
+  <si>
+    <t>film_deposition</t>
   </si>
 </sst>
 </file>
@@ -1261,8 +1261,8 @@
   <dimension ref="A1:G67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C38" sqref="C38:C39"/>
+      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1296,7 +1296,7 @@
         <v>11</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="3" customFormat="1" ht="15.75" thickTop="1"/>
@@ -1337,7 +1337,7 @@
         <v>12</v>
       </c>
       <c r="G4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1357,7 +1357,7 @@
         <v>12</v>
       </c>
       <c r="G5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1377,7 +1377,7 @@
         <v>12</v>
       </c>
       <c r="G6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1397,7 +1397,7 @@
         <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1417,7 +1417,7 @@
         <v>12</v>
       </c>
       <c r="G8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1437,7 +1437,7 @@
         <v>12</v>
       </c>
       <c r="G9" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1457,7 +1457,7 @@
         <v>12</v>
       </c>
       <c r="G10" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="3" customFormat="1"/>
@@ -1501,10 +1501,10 @@
         <v>29</v>
       </c>
       <c r="B15" t="s">
+        <v>259</v>
+      </c>
+      <c r="C15" t="s">
         <v>260</v>
-      </c>
-      <c r="C15" t="s">
-        <v>261</v>
       </c>
       <c r="D15" t="s">
         <v>32</v>
@@ -1530,7 +1530,7 @@
         <v>34</v>
       </c>
       <c r="G16" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="17" spans="1:7" s="4" customFormat="1">
@@ -1559,7 +1559,7 @@
         <v>43</v>
       </c>
       <c r="B20" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C20" t="s">
         <v>44</v>
@@ -1573,7 +1573,7 @@
         <v>43</v>
       </c>
       <c r="B21" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C21" t="s">
         <v>45</v>
@@ -1638,13 +1638,13 @@
         <v>53</v>
       </c>
       <c r="C25" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F25" t="s">
         <v>12</v>
       </c>
       <c r="G25" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1661,7 +1661,7 @@
         <v>12</v>
       </c>
       <c r="G26" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1684,7 +1684,7 @@
         <v>34</v>
       </c>
       <c r="G27" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1701,7 +1701,7 @@
         <v>12</v>
       </c>
       <c r="G28" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="29" spans="1:7" s="4" customFormat="1"/>
@@ -1725,7 +1725,7 @@
     <row r="31" spans="1:7" s="3" customFormat="1"/>
     <row r="32" spans="1:7">
       <c r="A32" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B32" t="s">
         <v>66</v>
@@ -1742,7 +1742,7 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B33" t="s">
         <v>68</v>
@@ -1757,12 +1757,12 @@
         <v>12</v>
       </c>
       <c r="G33" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B34" t="s">
         <v>69</v>
@@ -1777,12 +1777,12 @@
         <v>33</v>
       </c>
       <c r="G34" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B35" t="s">
         <v>70</v>
@@ -1797,12 +1797,12 @@
         <v>33</v>
       </c>
       <c r="G35" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B36" t="s">
         <v>71</v>
@@ -1817,12 +1817,12 @@
         <v>34</v>
       </c>
       <c r="G36" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B37" t="s">
         <v>83</v>
@@ -1837,12 +1837,12 @@
         <v>34</v>
       </c>
       <c r="G37" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B38" t="s">
         <v>84</v>
@@ -1857,18 +1857,18 @@
         <v>34</v>
       </c>
       <c r="G38" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B39" t="s">
         <v>88</v>
       </c>
       <c r="C39" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D39" t="s">
         <v>91</v>
@@ -1877,7 +1877,7 @@
         <v>34</v>
       </c>
       <c r="G39" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="40" spans="1:7" s="4" customFormat="1"/>
@@ -1895,7 +1895,7 @@
         <v>33</v>
       </c>
       <c r="G41" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1915,7 +1915,7 @@
         <v>34</v>
       </c>
       <c r="G42" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1932,7 +1932,7 @@
         <v>12</v>
       </c>
       <c r="G43" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="44" spans="1:7" s="4" customFormat="1"/>
@@ -1953,7 +1953,7 @@
         <v>12</v>
       </c>
       <c r="G45" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -1973,7 +1973,7 @@
         <v>34</v>
       </c>
       <c r="G46" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -1993,7 +1993,7 @@
         <v>34</v>
       </c>
       <c r="G47" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -2013,7 +2013,7 @@
         <v>12</v>
       </c>
       <c r="G48" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -2033,7 +2033,7 @@
         <v>12</v>
       </c>
       <c r="G49" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -2053,7 +2053,7 @@
         <v>12</v>
       </c>
       <c r="G50" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -2070,7 +2070,7 @@
         <v>12</v>
       </c>
       <c r="G51" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -2090,7 +2090,7 @@
         <v>34</v>
       </c>
       <c r="G52" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -2110,39 +2110,36 @@
         <v>34</v>
       </c>
       <c r="G53" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="54" spans="1:7" s="4" customFormat="1"/>
     <row r="55" spans="1:7">
       <c r="A55" t="s">
+        <v>279</v>
+      </c>
+      <c r="B55" t="s">
         <v>119</v>
       </c>
-      <c r="B55" t="s">
+      <c r="C55" t="s">
         <v>120</v>
       </c>
-      <c r="C55" t="s">
+      <c r="E55" t="s">
         <v>121</v>
-      </c>
-      <c r="E55" t="s">
-        <v>122</v>
       </c>
       <c r="F55" t="s">
         <v>12</v>
       </c>
-      <c r="G55" t="s">
-        <v>184</v>
-      </c>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" t="s">
-        <v>119</v>
+        <v>279</v>
       </c>
       <c r="B56" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C56" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D56" t="s">
         <v>76</v>
@@ -2151,115 +2148,115 @@
         <v>34</v>
       </c>
       <c r="G56" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" t="s">
-        <v>119</v>
+        <v>279</v>
       </c>
       <c r="B57" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C57" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D57" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F57" t="s">
         <v>34</v>
       </c>
       <c r="G57" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" t="s">
-        <v>119</v>
+        <v>279</v>
       </c>
       <c r="B58" t="s">
+        <v>126</v>
+      </c>
+      <c r="C58" t="s">
         <v>127</v>
       </c>
-      <c r="C58" t="s">
+      <c r="E58" t="s">
         <v>128</v>
-      </c>
-      <c r="E58" t="s">
-        <v>129</v>
       </c>
       <c r="F58" t="s">
         <v>12</v>
       </c>
       <c r="G58" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" t="s">
-        <v>119</v>
+        <v>279</v>
       </c>
       <c r="B59" t="s">
+        <v>130</v>
+      </c>
+      <c r="C59" t="s">
         <v>131</v>
       </c>
-      <c r="C59" t="s">
-        <v>132</v>
-      </c>
       <c r="D59" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F59" t="s">
         <v>34</v>
       </c>
       <c r="G59" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" t="s">
-        <v>119</v>
+        <v>279</v>
       </c>
       <c r="B60" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C60" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F60" t="s">
         <v>34</v>
       </c>
       <c r="G60" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" t="s">
-        <v>119</v>
+        <v>279</v>
       </c>
       <c r="B61" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C61" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E61" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F61" t="s">
         <v>12</v>
       </c>
       <c r="G61" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" t="s">
-        <v>119</v>
+        <v>279</v>
       </c>
       <c r="B62" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C62" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>114</v>
@@ -2268,84 +2265,84 @@
         <v>34</v>
       </c>
       <c r="G62" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" t="s">
-        <v>119</v>
+        <v>279</v>
       </c>
       <c r="B63" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C63" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D63" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F63" t="s">
         <v>34</v>
       </c>
       <c r="G63" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" t="s">
-        <v>119</v>
+        <v>279</v>
       </c>
       <c r="B64" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C64" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F64" t="s">
         <v>34</v>
       </c>
       <c r="G64" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="65" spans="1:7">
       <c r="A65" t="s">
-        <v>119</v>
+        <v>279</v>
       </c>
       <c r="B65" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C65" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E65" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F65" t="s">
         <v>12</v>
       </c>
       <c r="G65" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="66" spans="1:7">
       <c r="A66" t="s">
-        <v>119</v>
+        <v>279</v>
       </c>
       <c r="B66" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C66" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F66" t="s">
         <v>34</v>
       </c>
       <c r="G66" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="67" spans="1:7" s="3" customFormat="1"/>
@@ -2372,7 +2369,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="19.5" thickBot="1">
       <c r="A1" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>0</v>
@@ -2383,101 +2380,101 @@
     </row>
     <row r="2" spans="1:3" ht="15.75" thickTop="1">
       <c r="A2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B2" t="s">
         <v>71</v>
       </c>
       <c r="C2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B3" t="s">
         <v>71</v>
       </c>
       <c r="C3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B4" t="s">
         <v>71</v>
       </c>
       <c r="C4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B5" t="s">
         <v>71</v>
       </c>
       <c r="C5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B6" t="s">
         <v>71</v>
       </c>
       <c r="C6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B7" t="s">
         <v>71</v>
       </c>
       <c r="C7" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B8" t="s">
         <v>71</v>
       </c>
       <c r="C8" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B10" t="s">
         <v>71</v>
       </c>
       <c r="C10" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
   </sheetData>
@@ -2490,7 +2487,7 @@
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2502,7 +2499,7 @@
   <sheetData>
     <row r="1" spans="1:3" s="6" customFormat="1" ht="19.5" thickBot="1">
       <c r="A1" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>0</v>
@@ -2516,10 +2513,10 @@
         <v>66</v>
       </c>
       <c r="B2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2527,10 +2524,10 @@
         <v>66</v>
       </c>
       <c r="B3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2538,10 +2535,10 @@
         <v>66</v>
       </c>
       <c r="B4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2549,10 +2546,10 @@
         <v>66</v>
       </c>
       <c r="B5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2560,10 +2557,10 @@
         <v>66</v>
       </c>
       <c r="B6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2571,10 +2568,10 @@
         <v>66</v>
       </c>
       <c r="B7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2582,10 +2579,10 @@
         <v>66</v>
       </c>
       <c r="B8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2593,10 +2590,10 @@
         <v>66</v>
       </c>
       <c r="B9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C9" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2604,88 +2601,88 @@
         <v>66</v>
       </c>
       <c r="B10" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C10" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="11" spans="1:3" s="4" customFormat="1"/>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B12" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C12" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B13" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C13" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C14" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C15" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B16" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C16" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B17" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C17" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B18" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C18" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="19" spans="1:3" s="4" customFormat="1"/>
@@ -2699,7 +2696,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2711,7 +2708,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="19.5" thickBot="1">
       <c r="A1" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>0</v>
@@ -2722,135 +2719,135 @@
     </row>
     <row r="2" spans="1:3" ht="15.75" thickTop="1">
       <c r="A2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B8" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C8" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B9" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C9" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="11" spans="1:3" s="8" customFormat="1"/>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
+        <v>264</v>
+      </c>
+      <c r="B12" t="s">
         <v>265</v>
       </c>
-      <c r="B12" t="s">
-        <v>266</v>
-      </c>
       <c r="C12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B13" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C13" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B14" t="s">
+        <v>267</v>
+      </c>
+      <c r="C14" t="s">
         <v>268</v>
-      </c>
-      <c r="C14" t="s">
-        <v>269</v>
       </c>
     </row>
   </sheetData>
@@ -2890,321 +2887,321 @@
         <v>26</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F1" s="6" t="s">
         <v>11</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" thickTop="1">
       <c r="A2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="4" customFormat="1"/>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B9" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="4" customFormat="1"/>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B11" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D11" t="s">
         <v>89</v>
       </c>
       <c r="G11" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B12" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G12" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B13" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D13" t="s">
         <v>89</v>
       </c>
       <c r="G13" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B14" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D14" t="s">
         <v>89</v>
       </c>
       <c r="G14" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B15" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D15" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G15" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="16" spans="1:7" s="4" customFormat="1"/>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B17" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D17" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G17" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B18" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G18" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B19" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D19" t="s">
         <v>59</v>
       </c>
       <c r="G19" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B20" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G20" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B21" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D21" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G21" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B22" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G22" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B23" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D23" t="s">
         <v>59</v>
       </c>
       <c r="G23" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B24" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G24" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B25" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D25" t="s">
         <v>89</v>
       </c>
       <c r="G25" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B26" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G26" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="27" spans="1:7" s="4" customFormat="1"/>
     <row r="28" spans="1:7">
       <c r="A28" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B28" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D28" t="s">
         <v>89</v>
       </c>
       <c r="G28" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="29" spans="1:7" s="4" customFormat="1"/>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B30" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C30" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E30" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F30" t="s">
         <v>12</v>
@@ -3212,144 +3209,144 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B31" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C31" t="s">
+        <v>166</v>
+      </c>
+      <c r="E31" t="s">
         <v>167</v>
-      </c>
-      <c r="E31" t="s">
-        <v>168</v>
       </c>
       <c r="F31" t="s">
         <v>12</v>
       </c>
       <c r="G31" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B32" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C32" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D32" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F32" t="s">
         <v>34</v>
       </c>
       <c r="G32" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C33" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E33" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F33" t="s">
         <v>12</v>
       </c>
       <c r="G33" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B34" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C34" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D34" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F34" t="s">
         <v>34</v>
       </c>
       <c r="G34" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B35" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C35" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F35" t="s">
         <v>34</v>
       </c>
       <c r="G35" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B36" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D36" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F36" t="s">
         <v>34</v>
       </c>
       <c r="G36" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B37" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C37" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F37" t="s">
         <v>12</v>
       </c>
       <c r="G37" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B38" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C38" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>38</v>
@@ -3358,61 +3355,61 @@
         <v>34</v>
       </c>
       <c r="G38" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B39" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F39" t="s">
         <v>33</v>
       </c>
       <c r="G39" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B40" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C40" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D40" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F40" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G40" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B41" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C41" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F41" t="s">
         <v>12</v>
       </c>
       <c r="G41" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
